--- a/data/nzd0579/nzd0579.xlsx
+++ b/data/nzd0579/nzd0579.xlsx
@@ -537,7 +537,7 @@
         <v>295.78</v>
       </c>
       <c r="C4" t="n">
-        <v>223.6925</v>
+        <v>223.69</v>
       </c>
       <c r="D4" t="n">
         <v>213.78</v>
@@ -589,7 +589,7 @@
         <v>276.46</v>
       </c>
       <c r="C6" t="n">
-        <v>235.1975</v>
+        <v>235.2</v>
       </c>
       <c r="D6" t="n">
         <v>229.06</v>
@@ -647,10 +647,10 @@
         <v>225.83</v>
       </c>
       <c r="E8" t="n">
-        <v>219.6600000000001</v>
+        <v>219.66</v>
       </c>
       <c r="F8" t="n">
-        <v>210.6600000000001</v>
+        <v>210.66</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>274.95</v>
       </c>
       <c r="C9" t="n">
-        <v>213.795</v>
+        <v>213.79</v>
       </c>
       <c r="D9" t="n">
         <v>206.67</v>
@@ -747,7 +747,7 @@
         <v>260.35</v>
       </c>
       <c r="C12" t="n">
-        <v>225.8325</v>
+        <v>225.83</v>
       </c>
       <c r="D12" t="n">
         <v>214.95</v>
@@ -774,7 +774,7 @@
         <v>265.18</v>
       </c>
       <c r="C13" t="n">
-        <v>225.4375</v>
+        <v>225.44</v>
       </c>
       <c r="D13" t="n">
         <v>219.27</v>
@@ -820,7 +820,7 @@
         <v>268.13</v>
       </c>
       <c r="C15" t="n">
-        <v>232.6625</v>
+        <v>232.66</v>
       </c>
       <c r="D15" t="n">
         <v>224.65</v>
@@ -918,7 +918,7 @@
         <v>276.19</v>
       </c>
       <c r="C19" t="n">
-        <v>232.9275</v>
+        <v>232.93</v>
       </c>
       <c r="D19" t="n">
         <v>216.77</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>224.0575</v>
+        <v>224.06</v>
       </c>
       <c r="D23" t="n">
         <v>209.65</v>
@@ -1089,7 +1089,7 @@
         <v>256.71</v>
       </c>
       <c r="C26" t="n">
-        <v>217.8375</v>
+        <v>217.84</v>
       </c>
       <c r="D26" t="n">
         <v>203.47</v>
@@ -1116,7 +1116,7 @@
         <v>253.22</v>
       </c>
       <c r="C27" t="n">
-        <v>231.735</v>
+        <v>231.74</v>
       </c>
       <c r="D27" t="n">
         <v>218.96</v>
@@ -1170,7 +1170,7 @@
         <v>260.2</v>
       </c>
       <c r="C29" t="n">
-        <v>228.985</v>
+        <v>228.99</v>
       </c>
       <c r="D29" t="n">
         <v>217.65</v>
@@ -1197,7 +1197,7 @@
         <v>262.06</v>
       </c>
       <c r="C30" t="n">
-        <v>215.215</v>
+        <v>215.22</v>
       </c>
       <c r="D30" t="n">
         <v>205.25</v>
@@ -1224,7 +1224,7 @@
         <v>240.48</v>
       </c>
       <c r="C31" t="n">
-        <v>225.0825</v>
+        <v>225.08</v>
       </c>
       <c r="D31" t="n">
         <v>213.51</v>
@@ -1278,7 +1278,7 @@
         <v>225.85</v>
       </c>
       <c r="C33" t="n">
-        <v>212.8575</v>
+        <v>212.86</v>
       </c>
       <c r="D33" t="n">
         <v>209.55</v>
@@ -1351,7 +1351,7 @@
         <v>245.82</v>
       </c>
       <c r="C36" t="n">
-        <v>229.875</v>
+        <v>229.88</v>
       </c>
       <c r="D36" t="n">
         <v>216.25</v>
@@ -1441,7 +1441,7 @@
         <v>262</v>
       </c>
       <c r="C40" t="n">
-        <v>232.3025</v>
+        <v>232.3</v>
       </c>
       <c r="D40" t="n">
         <v>224.33</v>
@@ -1487,7 +1487,7 @@
         <v>266.85</v>
       </c>
       <c r="C42" t="n">
-        <v>228.845</v>
+        <v>228.84</v>
       </c>
       <c r="D42" t="n">
         <v>214.47</v>
@@ -1564,7 +1564,7 @@
         <v>248.44</v>
       </c>
       <c r="C45" t="n">
-        <v>218.955</v>
+        <v>218.96</v>
       </c>
       <c r="D45" t="n">
         <v>205.29</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>256.7225</v>
+        <v>256.72</v>
       </c>
       <c r="D46" t="n">
         <v>211.31</v>
@@ -1670,7 +1670,7 @@
         <v>267.09</v>
       </c>
       <c r="C49" t="n">
-        <v>228.7925</v>
+        <v>228.79</v>
       </c>
       <c r="D49" t="n">
         <v>217.66</v>
@@ -1697,7 +1697,7 @@
         <v>251.97</v>
       </c>
       <c r="C50" t="n">
-        <v>228.435</v>
+        <v>228.44</v>
       </c>
       <c r="D50" t="n">
         <v>209.24</v>
@@ -1808,7 +1808,7 @@
         <v>262.8</v>
       </c>
       <c r="C55" t="n">
-        <v>228.2625</v>
+        <v>228.26</v>
       </c>
       <c r="D55" t="n">
         <v>212.12</v>
@@ -1835,7 +1835,7 @@
         <v>268.34</v>
       </c>
       <c r="C56" t="n">
-        <v>235.1225</v>
+        <v>235.12</v>
       </c>
       <c r="D56" t="n">
         <v>212.92</v>
@@ -1885,7 +1885,7 @@
         <v>259.2</v>
       </c>
       <c r="C58" t="n">
-        <v>229.4525</v>
+        <v>229.45</v>
       </c>
       <c r="D58" t="n">
         <v>191.2</v>
@@ -1912,7 +1912,7 @@
         <v>260.87</v>
       </c>
       <c r="C59" t="n">
-        <v>231.8825</v>
+        <v>231.88</v>
       </c>
       <c r="D59" t="n">
         <v>209.5</v>
@@ -1993,7 +1993,7 @@
         <v>274.26</v>
       </c>
       <c r="C62" t="n">
-        <v>223.1575</v>
+        <v>223.16</v>
       </c>
       <c r="D62" t="n">
         <v>197.18</v>
@@ -2020,7 +2020,7 @@
         <v>257</v>
       </c>
       <c r="C63" t="n">
-        <v>229.135</v>
+        <v>229.13</v>
       </c>
       <c r="D63" t="n">
         <v>206.74</v>
@@ -2047,7 +2047,7 @@
         <v>249.92</v>
       </c>
       <c r="C64" t="n">
-        <v>226.6675</v>
+        <v>226.67</v>
       </c>
       <c r="D64" t="n">
         <v>211.59</v>
@@ -2074,7 +2074,7 @@
         <v>234.25</v>
       </c>
       <c r="C65" t="n">
-        <v>220.1275</v>
+        <v>220.13</v>
       </c>
       <c r="D65" t="n">
         <v>204.76</v>
@@ -2101,7 +2101,7 @@
         <v>243.54</v>
       </c>
       <c r="C66" t="n">
-        <v>227.2425</v>
+        <v>227.24</v>
       </c>
       <c r="D66" t="n">
         <v>216.32</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>237.4175</v>
+        <v>237.42</v>
       </c>
       <c r="D68" t="n">
         <v>208.37</v>
@@ -2205,7 +2205,7 @@
         <v>264.8</v>
       </c>
       <c r="C70" t="n">
-        <v>230.835</v>
+        <v>230.84</v>
       </c>
       <c r="D70" t="n">
         <v>213.93</v>
@@ -2232,7 +2232,7 @@
         <v>283.23</v>
       </c>
       <c r="C71" t="n">
-        <v>222.6025</v>
+        <v>222.6</v>
       </c>
       <c r="D71" t="n">
         <v>207.69</v>
@@ -2280,7 +2280,7 @@
         <v>265.17</v>
       </c>
       <c r="C73" t="n">
-        <v>236.455</v>
+        <v>236.46</v>
       </c>
       <c r="D73" t="n">
         <v>218.45</v>
@@ -2305,7 +2305,7 @@
         <v>254.27</v>
       </c>
       <c r="C74" t="n">
-        <v>234.0775</v>
+        <v>234.08</v>
       </c>
       <c r="D74" t="n">
         <v>223.12</v>
@@ -2332,7 +2332,7 @@
         <v>213.86</v>
       </c>
       <c r="C75" t="n">
-        <v>222.5025</v>
+        <v>222.5</v>
       </c>
       <c r="D75" t="n">
         <v>202.68</v>
@@ -2359,7 +2359,7 @@
         <v>247.69</v>
       </c>
       <c r="C76" t="n">
-        <v>229.5825</v>
+        <v>229.58</v>
       </c>
       <c r="D76" t="n">
         <v>220.46</v>
@@ -2409,7 +2409,7 @@
         <v>222.05</v>
       </c>
       <c r="C78" t="n">
-        <v>220.485</v>
+        <v>220.49</v>
       </c>
       <c r="D78" t="n">
         <v>208.73</v>
@@ -2484,7 +2484,7 @@
         <v>248.64</v>
       </c>
       <c r="C81" t="n">
-        <v>229.125</v>
+        <v>229.12</v>
       </c>
       <c r="D81" t="n">
         <v>216.92</v>
@@ -2511,7 +2511,7 @@
         <v>286.95</v>
       </c>
       <c r="C82" t="n">
-        <v>215.9725</v>
+        <v>215.97</v>
       </c>
       <c r="D82" t="n">
         <v>214.44</v>
@@ -2565,7 +2565,7 @@
         <v>205.34</v>
       </c>
       <c r="C84" t="n">
-        <v>211.5075</v>
+        <v>211.51</v>
       </c>
       <c r="D84" t="n">
         <v>205.47</v>
@@ -2613,7 +2613,7 @@
         <v>227.3</v>
       </c>
       <c r="C86" t="n">
-        <v>225.405</v>
+        <v>225.41</v>
       </c>
       <c r="D86" t="n">
         <v>214.23</v>
@@ -2686,7 +2686,7 @@
         <v>246.92</v>
       </c>
       <c r="C89" t="n">
-        <v>225.035</v>
+        <v>225.03</v>
       </c>
       <c r="D89" t="n">
         <v>213.92</v>
@@ -2713,7 +2713,7 @@
         <v>273.55</v>
       </c>
       <c r="C90" t="n">
-        <v>209.8375</v>
+        <v>209.84</v>
       </c>
       <c r="D90" t="n">
         <v>206.02</v>
@@ -2740,7 +2740,7 @@
         <v>239.54</v>
       </c>
       <c r="C91" t="n">
-        <v>217.6425</v>
+        <v>217.64</v>
       </c>
       <c r="D91" t="n">
         <v>213.7</v>
@@ -2767,7 +2767,7 @@
         <v>247.31</v>
       </c>
       <c r="C92" t="n">
-        <v>235.8325</v>
+        <v>235.83</v>
       </c>
       <c r="D92" t="n">
         <v>230.74</v>
@@ -2790,7 +2790,7 @@
         <v>220.07</v>
       </c>
       <c r="C93" t="n">
-        <v>221.3025</v>
+        <v>221.3</v>
       </c>
       <c r="D93" t="n">
         <v>217.14</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>218.9375</v>
+        <v>218.94</v>
       </c>
       <c r="D94" t="n">
         <v>211.46</v>
@@ -2842,7 +2842,7 @@
         <v>253.92</v>
       </c>
       <c r="C95" t="n">
-        <v>235.265</v>
+        <v>235.26</v>
       </c>
       <c r="D95" t="n">
         <v>224.28</v>
@@ -2917,7 +2917,7 @@
         <v>250.39</v>
       </c>
       <c r="C98" t="n">
-        <v>226.6475</v>
+        <v>226.65</v>
       </c>
       <c r="D98" t="n">
         <v>221.52</v>
@@ -2963,7 +2963,7 @@
         <v>242.28</v>
       </c>
       <c r="C100" t="n">
-        <v>228.3175</v>
+        <v>228.32</v>
       </c>
       <c r="D100" t="n">
         <v>217.63</v>
@@ -2988,7 +2988,7 @@
         <v>226.92</v>
       </c>
       <c r="C101" t="n">
-        <v>221.585</v>
+        <v>221.59</v>
       </c>
       <c r="D101" t="n">
         <v>211.63</v>
@@ -3011,7 +3011,7 @@
         <v>222.74</v>
       </c>
       <c r="C102" t="n">
-        <v>220.3275</v>
+        <v>220.33</v>
       </c>
       <c r="D102" t="n">
         <v>217.4</v>
@@ -3059,7 +3059,7 @@
         <v>257.37</v>
       </c>
       <c r="C104" t="n">
-        <v>229.295</v>
+        <v>229.29</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -3170,7 +3170,7 @@
         <v>249.94</v>
       </c>
       <c r="C109" t="n">
-        <v>227.0875</v>
+        <v>227.09</v>
       </c>
       <c r="D109" t="n">
         <v>224.19</v>
@@ -3268,7 +3268,7 @@
         <v>233.91</v>
       </c>
       <c r="C113" t="n">
-        <v>220.9475</v>
+        <v>220.95</v>
       </c>
       <c r="D113" t="n">
         <v>221.05</v>
@@ -3339,10 +3339,10 @@
         <v>227.99</v>
       </c>
       <c r="C116" t="n">
-        <v>222.5125</v>
+        <v>222.51</v>
       </c>
       <c r="D116" t="n">
-        <v>217.4100000000001</v>
+        <v>217.41</v>
       </c>
       <c r="E116" t="n">
         <v>210.68</v>
@@ -3366,7 +3366,7 @@
         <v>228.92</v>
       </c>
       <c r="C117" t="n">
-        <v>219.7475</v>
+        <v>219.75</v>
       </c>
       <c r="D117" t="n">
         <v>219.46</v>
@@ -3393,7 +3393,7 @@
         <v>222.64</v>
       </c>
       <c r="C118" t="n">
-        <v>221.3675</v>
+        <v>221.37</v>
       </c>
       <c r="D118" t="n">
         <v>215.14</v>
@@ -3443,7 +3443,7 @@
         <v>238.16</v>
       </c>
       <c r="C120" t="n">
-        <v>214.0575</v>
+        <v>214.06</v>
       </c>
       <c r="D120" t="n">
         <v>210.42</v>
@@ -3508,7 +3508,7 @@
         <v>227.6</v>
       </c>
       <c r="C123" t="n">
-        <v>203.7725</v>
+        <v>203.77</v>
       </c>
       <c r="D123" t="n">
         <v>200.38</v>
@@ -3531,13 +3531,13 @@
         <v>244.39</v>
       </c>
       <c r="C124" t="n">
-        <v>221.5325</v>
+        <v>221.53</v>
       </c>
       <c r="D124" t="n">
         <v>227.28</v>
       </c>
       <c r="E124" t="n">
-        <v>217.1600000000001</v>
+        <v>217.16</v>
       </c>
       <c r="F124" t="n">
         <v>202.98</v>
@@ -3581,7 +3581,7 @@
         <v>206.25</v>
       </c>
       <c r="C126" t="n">
-        <v>201.4825</v>
+        <v>201.48</v>
       </c>
       <c r="D126" t="n">
         <v>197.02</v>
@@ -3608,7 +3608,7 @@
         <v>230.74</v>
       </c>
       <c r="C127" t="n">
-        <v>220.1475</v>
+        <v>220.15</v>
       </c>
       <c r="D127" t="n">
         <v>213.65</v>
@@ -3635,7 +3635,7 @@
         <v>224.21</v>
       </c>
       <c r="C128" t="n">
-        <v>207.345</v>
+        <v>207.34</v>
       </c>
       <c r="D128" t="n">
         <v>205.59</v>
@@ -3687,7 +3687,7 @@
         <v>239.62</v>
       </c>
       <c r="C130" t="n">
-        <v>240.2175</v>
+        <v>240.22</v>
       </c>
       <c r="D130" t="n">
         <v>230.55</v>
@@ -3741,7 +3741,7 @@
         <v>234.99</v>
       </c>
       <c r="C132" t="n">
-        <v>210.5725</v>
+        <v>210.57</v>
       </c>
       <c r="D132" t="n">
         <v>206.85</v>
@@ -3764,7 +3764,7 @@
         <v>244.21</v>
       </c>
       <c r="C133" t="n">
-        <v>218.9075</v>
+        <v>218.91</v>
       </c>
       <c r="D133" t="n">
         <v>208.32</v>
@@ -3856,7 +3856,7 @@
         <v>241.79</v>
       </c>
       <c r="C137" t="n">
-        <v>217.2125</v>
+        <v>217.21</v>
       </c>
       <c r="D137" t="n">
         <v>207.37</v>
@@ -3883,7 +3883,7 @@
         <v>240.65</v>
       </c>
       <c r="C138" t="n">
-        <v>210.5375</v>
+        <v>210.54</v>
       </c>
       <c r="D138" t="n">
         <v>202.35</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>214.285</v>
+        <v>214.28</v>
       </c>
       <c r="D139" t="n">
         <v>210.11</v>
@@ -3960,7 +3960,7 @@
         <v>229.01</v>
       </c>
       <c r="C141" t="n">
-        <v>208.9225</v>
+        <v>208.92</v>
       </c>
       <c r="D141" t="n">
         <v>207.44</v>
@@ -4010,7 +4010,7 @@
         <v>233.02</v>
       </c>
       <c r="C143" t="n">
-        <v>215.1475</v>
+        <v>215.15</v>
       </c>
       <c r="D143" t="n">
         <v>211.51</v>
@@ -4037,7 +4037,7 @@
         <v>232.7</v>
       </c>
       <c r="C144" t="n">
-        <v>222.865</v>
+        <v>222.87</v>
       </c>
       <c r="D144" t="n">
         <v>215.49</v>
@@ -4118,7 +4118,7 @@
         <v>237.83</v>
       </c>
       <c r="C147" t="n">
-        <v>217.3925</v>
+        <v>217.39</v>
       </c>
       <c r="D147" t="n">
         <v>216.31</v>
@@ -4145,7 +4145,7 @@
         <v>218.14</v>
       </c>
       <c r="C148" t="n">
-        <v>218.8725</v>
+        <v>218.87</v>
       </c>
       <c r="D148" t="n">
         <v>212.93</v>
@@ -4172,7 +4172,7 @@
         <v>216.81</v>
       </c>
       <c r="C149" t="n">
-        <v>218.9325</v>
+        <v>218.93</v>
       </c>
       <c r="D149" t="n">
         <v>209.73</v>
@@ -4218,7 +4218,7 @@
         <v>246.13</v>
       </c>
       <c r="C151" t="n">
-        <v>215.565</v>
+        <v>215.56</v>
       </c>
       <c r="D151" t="n">
         <v>206.9</v>
@@ -4243,7 +4243,7 @@
         <v>244.76</v>
       </c>
       <c r="C152" t="n">
-        <v>223.1675</v>
+        <v>223.17</v>
       </c>
       <c r="D152" t="n">
         <v>211.4</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>211.705</v>
+        <v>211.71</v>
       </c>
       <c r="D153" t="n">
         <v>203</v>
@@ -4289,7 +4289,7 @@
         <v>246.99</v>
       </c>
       <c r="C154" t="n">
-        <v>225.115</v>
+        <v>225.12</v>
       </c>
       <c r="D154" t="n">
         <v>215.37</v>
@@ -4339,7 +4339,7 @@
         <v>242.78</v>
       </c>
       <c r="C156" t="n">
-        <v>228.795</v>
+        <v>228.79</v>
       </c>
       <c r="D156" t="n">
         <v>221.33</v>
@@ -4366,7 +4366,7 @@
         <v>216.72</v>
       </c>
       <c r="C157" t="n">
-        <v>226.545</v>
+        <v>226.54</v>
       </c>
       <c r="D157" t="n">
         <v>226.06</v>
@@ -4391,7 +4391,7 @@
         <v>234.07</v>
       </c>
       <c r="C158" t="n">
-        <v>223.5525</v>
+        <v>223.55</v>
       </c>
       <c r="D158" t="n">
         <v>217.93</v>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>223.2925</v>
+        <v>223.29</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -4485,7 +4485,7 @@
         <v>182.37</v>
       </c>
       <c r="C162" t="n">
-        <v>197.595</v>
+        <v>197.59</v>
       </c>
       <c r="D162" t="n">
         <v>196.99</v>
@@ -4512,7 +4512,7 @@
         <v>220.6</v>
       </c>
       <c r="C163" t="n">
-        <v>206.9075</v>
+        <v>206.91</v>
       </c>
       <c r="D163" t="n">
         <v>213.74</v>
@@ -4539,7 +4539,7 @@
         <v>241.08</v>
       </c>
       <c r="C164" t="n">
-        <v>224.5075</v>
+        <v>224.51</v>
       </c>
       <c r="D164" t="n">
         <v>215.96</v>
@@ -4593,7 +4593,7 @@
         <v>243.64</v>
       </c>
       <c r="C166" t="n">
-        <v>226.6025</v>
+        <v>226.6</v>
       </c>
       <c r="D166" t="n">
         <v>222.84</v>
@@ -4647,7 +4647,7 @@
         <v>216.57</v>
       </c>
       <c r="C168" t="n">
-        <v>224.0775</v>
+        <v>224.08</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
         <v>229.99</v>
       </c>
       <c r="C169" t="n">
-        <v>217.9725</v>
+        <v>217.97</v>
       </c>
       <c r="D169" t="n">
         <v>201.99</v>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>230.0775</v>
+        <v>230.08</v>
       </c>
       <c r="D170" t="n">
         <v>215.14</v>
@@ -4720,7 +4720,7 @@
         <v>196.78</v>
       </c>
       <c r="C171" t="n">
-        <v>217.7475</v>
+        <v>217.75</v>
       </c>
       <c r="D171" t="n">
         <v>212.42</v>
@@ -4770,7 +4770,7 @@
         <v>233.26</v>
       </c>
       <c r="C173" t="n">
-        <v>216.465</v>
+        <v>216.47</v>
       </c>
       <c r="D173" t="n">
         <v>205.73</v>
@@ -4818,7 +4818,7 @@
         <v>218.84</v>
       </c>
       <c r="C175" t="n">
-        <v>221.6225</v>
+        <v>221.62</v>
       </c>
       <c r="D175" t="n">
         <v>212.35</v>
@@ -4845,7 +4845,7 @@
         <v>229.16</v>
       </c>
       <c r="C176" t="n">
-        <v>224.0525</v>
+        <v>224.05</v>
       </c>
       <c r="D176" t="n">
         <v>216.25</v>
@@ -4872,7 +4872,7 @@
         <v>212.8</v>
       </c>
       <c r="C177" t="n">
-        <v>218.6325</v>
+        <v>218.63</v>
       </c>
       <c r="D177" t="n">
         <v>207.69</v>
@@ -4897,7 +4897,7 @@
         <v>248.05</v>
       </c>
       <c r="C178" t="n">
-        <v>227.745</v>
+        <v>227.75</v>
       </c>
       <c r="D178" t="n">
         <v>207.42</v>
@@ -4924,7 +4924,7 @@
         <v>247.4</v>
       </c>
       <c r="C179" t="n">
-        <v>220.4175</v>
+        <v>220.42</v>
       </c>
       <c r="D179" t="n">
         <v>210.17</v>
@@ -4974,7 +4974,7 @@
         <v>255.64</v>
       </c>
       <c r="C181" t="n">
-        <v>229.335</v>
+        <v>229.34</v>
       </c>
       <c r="D181" t="n">
         <v>219.43</v>
@@ -4999,7 +4999,7 @@
         <v>218.95</v>
       </c>
       <c r="C182" t="n">
-        <v>205.835</v>
+        <v>205.84</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
@@ -5020,7 +5020,7 @@
         <v>204.46</v>
       </c>
       <c r="C183" t="n">
-        <v>213.4625</v>
+        <v>213.46</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -5060,7 +5060,7 @@
         <v>230.48</v>
       </c>
       <c r="C185" t="n">
-        <v>225.455</v>
+        <v>225.46</v>
       </c>
       <c r="D185" t="n">
         <v>216.76</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>224.6675</v>
+        <v>224.67</v>
       </c>
       <c r="D186" t="n">
         <v>213.61</v>
@@ -5150,7 +5150,7 @@
         <v>251.87</v>
       </c>
       <c r="C189" t="n">
-        <v>229.3675</v>
+        <v>229.37</v>
       </c>
       <c r="D189" t="n">
         <v>222.38</v>
@@ -5173,7 +5173,7 @@
         <v>248.83</v>
       </c>
       <c r="C190" t="n">
-        <v>235.405</v>
+        <v>235.41</v>
       </c>
       <c r="D190" t="n">
         <v>223.93</v>
@@ -5198,7 +5198,7 @@
         <v>250.45</v>
       </c>
       <c r="C191" t="n">
-        <v>229.6225</v>
+        <v>229.62</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -5219,7 +5219,7 @@
         <v>243.69</v>
       </c>
       <c r="C192" t="n">
-        <v>230.535</v>
+        <v>230.53</v>
       </c>
       <c r="D192" t="n">
         <v>224.38</v>
@@ -5246,7 +5246,7 @@
         <v>229</v>
       </c>
       <c r="C193" t="n">
-        <v>225.9175</v>
+        <v>225.92</v>
       </c>
       <c r="D193" t="n">
         <v>218.67</v>
@@ -5269,7 +5269,7 @@
         <v>237.87</v>
       </c>
       <c r="C194" t="n">
-        <v>227.0625</v>
+        <v>227.06</v>
       </c>
       <c r="D194" t="n">
         <v>221.43</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>224.4875</v>
+        <v>224.49</v>
       </c>
       <c r="D195" t="n">
         <v>217.67</v>
@@ -5319,7 +5319,7 @@
         <v>225.22</v>
       </c>
       <c r="C196" t="n">
-        <v>226.5525</v>
+        <v>226.55</v>
       </c>
       <c r="D196" t="n">
         <v>211.42</v>
@@ -5367,7 +5367,7 @@
         <v>272.08</v>
       </c>
       <c r="C198" t="n">
-        <v>221.0525</v>
+        <v>221.05</v>
       </c>
       <c r="D198" t="n">
         <v>215.12</v>
@@ -5392,7 +5392,7 @@
         <v>261.21</v>
       </c>
       <c r="C199" t="n">
-        <v>233.3075</v>
+        <v>233.31</v>
       </c>
       <c r="D199" t="n">
         <v>226.15</v>
@@ -5415,7 +5415,7 @@
         <v>236.97</v>
       </c>
       <c r="C200" t="n">
-        <v>217.925</v>
+        <v>217.93</v>
       </c>
       <c r="D200" t="n">
         <v>212.38</v>
@@ -5442,7 +5442,7 @@
         <v>224.49</v>
       </c>
       <c r="C201" t="n">
-        <v>206.6875</v>
+        <v>206.69</v>
       </c>
       <c r="D201" t="n">
         <v>199.07</v>
@@ -5521,7 +5521,7 @@
         <v>203.39</v>
       </c>
       <c r="C204" t="n">
-        <v>207.765</v>
+        <v>207.76</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>234.8125</v>
+        <v>234.81</v>
       </c>
       <c r="D206" t="n">
         <v>257.51</v>
@@ -5607,7 +5607,7 @@
         <v>220.52</v>
       </c>
       <c r="C208" t="n">
-        <v>213.2425</v>
+        <v>213.24</v>
       </c>
       <c r="D208" t="n">
         <v>212.42</v>
@@ -5634,7 +5634,7 @@
         <v>221.37</v>
       </c>
       <c r="C209" t="n">
-        <v>216.6475</v>
+        <v>216.65</v>
       </c>
       <c r="D209" t="n">
         <v>204.74</v>
@@ -5705,7 +5705,7 @@
         <v>214.83</v>
       </c>
       <c r="C212" t="n">
-        <v>218.665</v>
+        <v>218.66</v>
       </c>
       <c r="D212" t="n">
         <v>204.97</v>
@@ -5801,7 +5801,7 @@
         <v>247.37</v>
       </c>
       <c r="C216" t="n">
-        <v>235.4325</v>
+        <v>235.43</v>
       </c>
       <c r="D216" t="n">
         <v>224.84</v>
@@ -5847,7 +5847,7 @@
         <v>236.93</v>
       </c>
       <c r="C218" t="n">
-        <v>225.0775</v>
+        <v>225.08</v>
       </c>
       <c r="D218" t="n">
         <v>216.97</v>
@@ -5899,7 +5899,7 @@
         <v>243.34</v>
       </c>
       <c r="C220" t="n">
-        <v>216.085</v>
+        <v>216.09</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -5979,7 +5979,7 @@
         <v>234.41</v>
       </c>
       <c r="C224" t="n">
-        <v>198.6175</v>
+        <v>198.62</v>
       </c>
       <c r="D224" t="n">
         <v>199.31</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>215.4525</v>
+        <v>215.45</v>
       </c>
       <c r="D225" t="n">
         <v>213.62</v>
@@ -6050,7 +6050,7 @@
         <v>228.79</v>
       </c>
       <c r="C227" t="n">
-        <v>211.165</v>
+        <v>211.16</v>
       </c>
       <c r="D227" t="n">
         <v>203.58</v>
@@ -6096,7 +6096,7 @@
         <v>238.59</v>
       </c>
       <c r="C229" t="n">
-        <v>218.415</v>
+        <v>218.41</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
         <v>221.25</v>
       </c>
       <c r="C231" t="n">
-        <v>221.0075</v>
+        <v>221.01</v>
       </c>
       <c r="D231" t="n">
         <v>217.51</v>
@@ -6163,7 +6163,7 @@
         <v>208.44</v>
       </c>
       <c r="C232" t="n">
-        <v>205.4825</v>
+        <v>205.48</v>
       </c>
       <c r="D232" t="n">
         <v>200.5</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>244.585</v>
+        <v>244.59</v>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>236.605</v>
+        <v>236.6</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
@@ -6276,7 +6276,7 @@
         <v>214.95</v>
       </c>
       <c r="C237" t="n">
-        <v>214.2425</v>
+        <v>214.24</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>189.8425</v>
+        <v>189.84</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
         <v>219.52</v>
       </c>
       <c r="C239" t="n">
-        <v>211.6125</v>
+        <v>211.61</v>
       </c>
       <c r="D239" t="n">
         <v>201.46</v>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>230.2975</v>
+        <v>230.3</v>
       </c>
       <c r="D241" t="n">
         <v>224.09</v>
@@ -6389,7 +6389,7 @@
         <v>214.57</v>
       </c>
       <c r="C242" t="n">
-        <v>217.2725</v>
+        <v>217.27</v>
       </c>
       <c r="D242" t="n">
         <v>227.67</v>
@@ -6443,7 +6443,7 @@
         <v>235.69</v>
       </c>
       <c r="C244" t="n">
-        <v>224.435</v>
+        <v>224.44</v>
       </c>
       <c r="D244" t="n">
         <v>223.76</v>
@@ -6491,7 +6491,7 @@
         <v>237.41</v>
       </c>
       <c r="C246" t="n">
-        <v>224.1475</v>
+        <v>224.15</v>
       </c>
       <c r="D246" t="n">
         <v>223.74</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>202.395</v>
+        <v>202.4</v>
       </c>
       <c r="D248" t="n">
         <v>208.5</v>
@@ -6589,7 +6589,7 @@
         <v>209.55</v>
       </c>
       <c r="C250" t="n">
-        <v>211.455</v>
+        <v>211.46</v>
       </c>
       <c r="D250" t="n">
         <v>220.48</v>
@@ -6616,7 +6616,7 @@
         <v>236.4</v>
       </c>
       <c r="C251" t="n">
-        <v>223.8025</v>
+        <v>223.8</v>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
@@ -6637,7 +6637,7 @@
         <v>253.1</v>
       </c>
       <c r="C252" t="n">
-        <v>229.2775</v>
+        <v>229.28</v>
       </c>
       <c r="D252" t="n">
         <v>230.4</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="n">
-        <v>237.515</v>
+        <v>237.51</v>
       </c>
       <c r="D253" t="n">
         <v>239.15</v>
@@ -6727,7 +6727,7 @@
         <v>221.3</v>
       </c>
       <c r="C256" t="n">
-        <v>251.465</v>
+        <v>251.47</v>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
@@ -6748,7 +6748,7 @@
         <v>247.01</v>
       </c>
       <c r="C257" t="n">
-        <v>227.1225</v>
+        <v>227.12</v>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
@@ -6769,7 +6769,7 @@
         <v>248.9</v>
       </c>
       <c r="C258" t="n">
-        <v>228.215</v>
+        <v>228.22</v>
       </c>
       <c r="D258" t="n">
         <v>225.3</v>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
-        <v>228.055</v>
+        <v>228.06</v>
       </c>
       <c r="D259" t="n">
         <v>240.9</v>
@@ -6844,7 +6844,7 @@
         <v>253.79</v>
       </c>
       <c r="C261" t="n">
-        <v>232.6825</v>
+        <v>232.68</v>
       </c>
       <c r="D261" t="n">
         <v>223.07</v>
@@ -6869,7 +6869,7 @@
         <v>262.22</v>
       </c>
       <c r="C262" t="n">
-        <v>215.485</v>
+        <v>215.49</v>
       </c>
       <c r="D262" t="n">
         <v>249.5</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
-        <v>200.895</v>
+        <v>200.9</v>
       </c>
       <c r="D264" t="n">
         <v>225.86</v>
@@ -6942,7 +6942,7 @@
         <v>246.03</v>
       </c>
       <c r="C265" t="n">
-        <v>212.6675</v>
+        <v>212.67</v>
       </c>
       <c r="D265" t="n">
         <v>223.03</v>
@@ -7107,7 +7107,7 @@
         <v>235.76</v>
       </c>
       <c r="C272" t="n">
-        <v>227.3525</v>
+        <v>227.35</v>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
         <v>240.75</v>
       </c>
       <c r="C281" t="n">
-        <v>225.8825</v>
+        <v>225.88</v>
       </c>
       <c r="D281" t="n">
         <v>220.85</v>
@@ -7363,7 +7363,7 @@
         <v>256.47</v>
       </c>
       <c r="C284" t="n">
-        <v>231.5225</v>
+        <v>231.52</v>
       </c>
       <c r="D284" t="n">
         <v>205.54</v>
@@ -7436,7 +7436,7 @@
         <v>261.27</v>
       </c>
       <c r="C287" t="n">
-        <v>241.4125</v>
+        <v>241.41</v>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
@@ -7457,7 +7457,7 @@
         <v>258.75</v>
       </c>
       <c r="C288" t="n">
-        <v>223.7675</v>
+        <v>223.77</v>
       </c>
       <c r="D288" t="n">
         <v>219.68</v>
@@ -7505,7 +7505,7 @@
         <v>242.41</v>
       </c>
       <c r="C290" t="n">
-        <v>228.5825</v>
+        <v>228.58</v>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
@@ -7526,7 +7526,7 @@
         <v>258.6</v>
       </c>
       <c r="C291" t="n">
-        <v>223.8475</v>
+        <v>223.85</v>
       </c>
       <c r="D291" t="n">
         <v>217.68</v>
@@ -7553,7 +7553,7 @@
         <v>246.02</v>
       </c>
       <c r="C292" t="n">
-        <v>221.9275</v>
+        <v>221.93</v>
       </c>
       <c r="D292" t="n">
         <v>223.03</v>
@@ -7603,7 +7603,7 @@
         <v>229.05</v>
       </c>
       <c r="C294" t="n">
-        <v>261.6875</v>
+        <v>261.69</v>
       </c>
       <c r="D294" t="n">
         <v>214.75</v>
@@ -7626,7 +7626,7 @@
         <v>241.5</v>
       </c>
       <c r="C295" t="n">
-        <v>221.5075</v>
+        <v>221.51</v>
       </c>
       <c r="D295" t="n">
         <v>216.76</v>
@@ -7653,7 +7653,7 @@
         <v>254.59</v>
       </c>
       <c r="C296" t="n">
-        <v>231.7225</v>
+        <v>231.72</v>
       </c>
       <c r="D296" t="n">
         <v>228.83</v>
@@ -7699,7 +7699,7 @@
         <v>238.78</v>
       </c>
       <c r="C298" t="n">
-        <v>226.3375</v>
+        <v>226.34</v>
       </c>
       <c r="D298" t="n">
         <v>216.61</v>
@@ -7745,7 +7745,7 @@
         <v>244.21</v>
       </c>
       <c r="C300" t="n">
-        <v>225.7175</v>
+        <v>225.72</v>
       </c>
       <c r="D300" t="n">
         <v>208.94</v>
@@ -7775,7 +7775,7 @@
         <v>224.62</v>
       </c>
       <c r="D301" t="n">
-        <v>219.4100000000001</v>
+        <v>219.41</v>
       </c>
       <c r="E301" t="n">
         <v>213.59</v>
@@ -7822,7 +7822,7 @@
         <v>250.54</v>
       </c>
       <c r="C303" t="n">
-        <v>223.5625</v>
+        <v>223.56</v>
       </c>
       <c r="D303" t="n">
         <v>214.12</v>
@@ -7849,7 +7849,7 @@
         <v>289.19</v>
       </c>
       <c r="C304" t="n">
-        <v>243.4975</v>
+        <v>243.5</v>
       </c>
       <c r="D304" t="n">
         <v>227.44</v>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="n">
-        <v>226.2325</v>
+        <v>226.23</v>
       </c>
       <c r="D305" t="n">
         <v>206.79</v>
@@ -7901,7 +7901,7 @@
         <v>247.76</v>
       </c>
       <c r="C306" t="n">
-        <v>280.3725</v>
+        <v>280.37</v>
       </c>
       <c r="D306" t="n">
         <v>263.51</v>
@@ -7951,7 +7951,7 @@
         <v>235.21</v>
       </c>
       <c r="C308" t="n">
-        <v>269.8025</v>
+        <v>269.8</v>
       </c>
       <c r="D308" t="n">
         <v>219.95</v>
@@ -7978,7 +7978,7 @@
         <v>230.03</v>
       </c>
       <c r="C309" t="n">
-        <v>235.0725</v>
+        <v>235.07</v>
       </c>
       <c r="D309" t="n">
         <v>217.82</v>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="n">
-        <v>229.105</v>
+        <v>229.1</v>
       </c>
       <c r="D310" t="n">
         <v>215.1</v>
@@ -8026,7 +8026,7 @@
         <v>258.89</v>
       </c>
       <c r="C311" t="n">
-        <v>231.9025</v>
+        <v>231.9</v>
       </c>
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr"/>
@@ -8047,7 +8047,7 @@
         <v>251.91</v>
       </c>
       <c r="C312" t="n">
-        <v>235.2175</v>
+        <v>235.22</v>
       </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
@@ -8068,7 +8068,7 @@
         <v>220.32</v>
       </c>
       <c r="C313" t="n">
-        <v>232.1675</v>
+        <v>232.17</v>
       </c>
       <c r="D313" t="n">
         <v>218.57</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="n">
-        <v>250.655</v>
+        <v>250.66</v>
       </c>
       <c r="D314" t="n">
         <v>242.68</v>
@@ -8118,7 +8118,7 @@
         <v>249.37</v>
       </c>
       <c r="C315" t="n">
-        <v>236.0925</v>
+        <v>236.09</v>
       </c>
       <c r="D315" t="n">
         <v>220.36</v>
@@ -8168,7 +8168,7 @@
         <v>251.77</v>
       </c>
       <c r="C317" t="n">
-        <v>230.535</v>
+        <v>230.53</v>
       </c>
       <c r="D317" t="n">
         <v>216.86</v>
@@ -8216,7 +8216,7 @@
         <v>222.31</v>
       </c>
       <c r="C319" t="n">
-        <v>227.835</v>
+        <v>227.84</v>
       </c>
       <c r="D319" t="n">
         <v>218.89</v>
@@ -8239,7 +8239,7 @@
         <v>217.19</v>
       </c>
       <c r="C320" t="n">
-        <v>222.435</v>
+        <v>222.44</v>
       </c>
       <c r="D320" t="n">
         <v>216.49</v>
@@ -8266,7 +8266,7 @@
         <v>232.26</v>
       </c>
       <c r="C321" t="n">
-        <v>228.075</v>
+        <v>228.07</v>
       </c>
       <c r="D321" t="n">
         <v>218.65</v>
@@ -8293,7 +8293,7 @@
         <v>251.35</v>
       </c>
       <c r="C322" t="n">
-        <v>234.6275</v>
+        <v>234.63</v>
       </c>
       <c r="D322" t="n">
         <v>222.2</v>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="n">
-        <v>232.465</v>
+        <v>232.47</v>
       </c>
       <c r="D324" t="n">
         <v>224.24</v>
@@ -8372,7 +8372,7 @@
         <v>286.91</v>
       </c>
       <c r="C325" t="n">
-        <v>244.8725</v>
+        <v>244.87</v>
       </c>
       <c r="D325" t="n">
         <v>225.73</v>
@@ -8395,7 +8395,7 @@
         <v>263.96</v>
       </c>
       <c r="C326" t="n">
-        <v>242.6625</v>
+        <v>242.66</v>
       </c>
       <c r="D326" t="n">
         <v>211.87</v>
@@ -8466,7 +8466,7 @@
         <v>267.32</v>
       </c>
       <c r="C329" t="n">
-        <v>232.2475</v>
+        <v>232.25</v>
       </c>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="n">
-        <v>234.825</v>
+        <v>234.82</v>
       </c>
       <c r="D333" t="n">
         <v>233.12</v>
@@ -8604,7 +8604,7 @@
         <v>245.81</v>
       </c>
       <c r="C335" t="n">
-        <v>230.9375</v>
+        <v>230.94</v>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr"/>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
-        <v>248.545</v>
+        <v>248.54</v>
       </c>
       <c r="D338" t="n">
         <v>211.74</v>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="n">
-        <v>230.7625</v>
+        <v>230.76</v>
       </c>
       <c r="D341" t="n">
         <v>211.94</v>
@@ -8788,7 +8788,7 @@
         <v>232.06</v>
       </c>
       <c r="C343" t="n">
-        <v>231.355</v>
+        <v>231.35</v>
       </c>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
@@ -8809,7 +8809,7 @@
         <v>220.15</v>
       </c>
       <c r="C344" t="n">
-        <v>212.9625</v>
+        <v>212.96</v>
       </c>
       <c r="D344" t="n">
         <v>210.79</v>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="n">
-        <v>226.0675</v>
+        <v>226.07</v>
       </c>
       <c r="D345" t="n">
         <v>216.33</v>
@@ -8926,7 +8926,7 @@
         <v>212.01</v>
       </c>
       <c r="C349" t="n">
-        <v>219.105</v>
+        <v>219.1</v>
       </c>
       <c r="D349" t="n">
         <v>212.49</v>
@@ -8953,7 +8953,7 @@
         <v>232.38</v>
       </c>
       <c r="C350" t="n">
-        <v>228.015</v>
+        <v>228.01</v>
       </c>
       <c r="D350" t="n">
         <v>221.12</v>
@@ -8980,7 +8980,7 @@
         <v>260.55</v>
       </c>
       <c r="C351" t="n">
-        <v>238.7825</v>
+        <v>238.78</v>
       </c>
       <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>249.35</v>
       </c>
       <c r="C355" t="n">
-        <v>230.7625</v>
+        <v>230.76</v>
       </c>
       <c r="D355" t="n">
         <v>223.46</v>
@@ -9091,7 +9091,7 @@
         <v>254.12</v>
       </c>
       <c r="C356" t="n">
-        <v>233.925</v>
+        <v>233.93</v>
       </c>
       <c r="D356" t="n">
         <v>223.04</v>
@@ -9191,7 +9191,7 @@
         <v>212.22</v>
       </c>
       <c r="C360" t="n">
-        <v>224.935</v>
+        <v>224.94</v>
       </c>
       <c r="D360" t="n">
         <v>207.7</v>
@@ -9264,7 +9264,7 @@
         <v>235.61</v>
       </c>
       <c r="C363" t="n">
-        <v>230.265</v>
+        <v>230.26</v>
       </c>
       <c r="D363" t="n">
         <v>223.8</v>
@@ -9291,7 +9291,7 @@
         <v>236.19</v>
       </c>
       <c r="C364" t="n">
-        <v>226.1325</v>
+        <v>226.13</v>
       </c>
       <c r="D364" t="n">
         <v>216.73</v>
@@ -9318,7 +9318,7 @@
         <v>242.49</v>
       </c>
       <c r="C365" t="n">
-        <v>227.1275</v>
+        <v>227.13</v>
       </c>
       <c r="D365" t="n">
         <v>220.8</v>
@@ -9341,7 +9341,7 @@
         <v>210.68</v>
       </c>
       <c r="C366" t="n">
-        <v>217.9525</v>
+        <v>217.95</v>
       </c>
       <c r="D366" t="n">
         <v>215.01</v>
@@ -9368,7 +9368,7 @@
         <v>197.32</v>
       </c>
       <c r="C367" t="n">
-        <v>212.0625</v>
+        <v>212.06</v>
       </c>
       <c r="D367" t="n">
         <v>207.09</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="n">
-        <v>217.6975</v>
+        <v>217.7</v>
       </c>
       <c r="D368" t="n">
         <v>216.37</v>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="n">
-        <v>214.7575</v>
+        <v>214.76</v>
       </c>
       <c r="D370" t="n">
         <v>205.2</v>
@@ -9489,7 +9489,7 @@
         <v>205.59</v>
       </c>
       <c r="C372" t="n">
-        <v>217.8475</v>
+        <v>217.85</v>
       </c>
       <c r="D372" t="n">
         <v>215.68</v>
@@ -9593,7 +9593,7 @@
         <v>212.75</v>
       </c>
       <c r="C376" t="n">
-        <v>217.975</v>
+        <v>217.97</v>
       </c>
       <c r="D376" t="n">
         <v>215.39</v>
@@ -9620,7 +9620,7 @@
         <v>233.25</v>
       </c>
       <c r="C377" t="n">
-        <v>215.1825</v>
+        <v>215.18</v>
       </c>
       <c r="D377" t="n">
         <v>218.01</v>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="n">
-        <v>216.9075</v>
+        <v>216.91</v>
       </c>
       <c r="D378" t="n">
         <v>225.55</v>
@@ -9672,7 +9672,7 @@
         <v>265</v>
       </c>
       <c r="C379" t="n">
-        <v>212.1825</v>
+        <v>212.18</v>
       </c>
       <c r="D379" t="n">
         <v>201.92</v>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="n">
-        <v>218.245</v>
+        <v>218.25</v>
       </c>
       <c r="D380" t="n">
         <v>217.01</v>
@@ -9724,7 +9724,7 @@
         <v>253.19</v>
       </c>
       <c r="C381" t="n">
-        <v>211.305</v>
+        <v>211.31</v>
       </c>
       <c r="D381" t="n">
         <v>217.64</v>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="n">
-        <v>206.2875</v>
+        <v>206.29</v>
       </c>
       <c r="D382" t="inlineStr"/>
       <c r="E382" t="inlineStr"/>
@@ -9789,7 +9789,7 @@
         <v>237.68</v>
       </c>
       <c r="C384" t="n">
-        <v>227.4525</v>
+        <v>227.45</v>
       </c>
       <c r="D384" t="n">
         <v>219.19</v>
@@ -9816,7 +9816,7 @@
         <v>235.62</v>
       </c>
       <c r="C385" t="n">
-        <v>225.0225</v>
+        <v>225.02</v>
       </c>
       <c r="D385" t="n">
         <v>223.22</v>
@@ -9843,7 +9843,7 @@
         <v>257.29</v>
       </c>
       <c r="C386" t="n">
-        <v>206.8975</v>
+        <v>206.9</v>
       </c>
       <c r="D386" t="n">
         <v>196.15</v>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="n">
-        <v>221.1275</v>
+        <v>221.13</v>
       </c>
       <c r="D387" t="n">
         <v>215.93</v>
@@ -9895,7 +9895,7 @@
         <v>259.92</v>
       </c>
       <c r="C388" t="n">
-        <v>219.7625</v>
+        <v>219.76</v>
       </c>
       <c r="D388" t="n">
         <v>212.6</v>
@@ -9922,7 +9922,7 @@
         <v>257.2</v>
       </c>
       <c r="C389" t="n">
-        <v>217.7825</v>
+        <v>217.78</v>
       </c>
       <c r="D389" t="n">
         <v>211.17</v>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="n">
-        <v>213.9725</v>
+        <v>213.97</v>
       </c>
       <c r="D390" t="n">
         <v>234.67</v>
@@ -9993,7 +9993,7 @@
         <v>259.79</v>
       </c>
       <c r="C392" t="n">
-        <v>229.085</v>
+        <v>229.09</v>
       </c>
       <c r="D392" t="n">
         <v>218.54</v>
@@ -10091,7 +10091,7 @@
         <v>234.15</v>
       </c>
       <c r="C396" t="n">
-        <v>226.6125</v>
+        <v>226.61</v>
       </c>
       <c r="D396" t="n">
         <v>219.65</v>
@@ -10118,7 +10118,7 @@
         <v>234.83</v>
       </c>
       <c r="C397" t="n">
-        <v>227.255</v>
+        <v>227.25</v>
       </c>
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
@@ -10141,7 +10141,7 @@
         <v>211.56</v>
       </c>
       <c r="C398" t="n">
-        <v>218.4525</v>
+        <v>218.45</v>
       </c>
       <c r="D398" t="n">
         <v>213.22</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="n">
-        <v>228.7075</v>
+        <v>228.71</v>
       </c>
       <c r="D401" t="n">
         <v>212.58</v>
@@ -10239,7 +10239,7 @@
         <v>192.73</v>
       </c>
       <c r="C402" t="n">
-        <v>184.605</v>
+        <v>184.6</v>
       </c>
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="n">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="n">
-        <v>217.0575</v>
+        <v>217.06</v>
       </c>
       <c r="D403" t="n">
         <v>204.57</v>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="n">
-        <v>223.7275</v>
+        <v>223.73</v>
       </c>
       <c r="D404" t="n">
         <v>219.12</v>
@@ -10312,7 +10312,7 @@
         <v>210.96</v>
       </c>
       <c r="C405" t="n">
-        <v>214.0425</v>
+        <v>214.04</v>
       </c>
       <c r="D405" t="n">
         <v>206.22</v>
@@ -10366,7 +10366,7 @@
         <v>215.7</v>
       </c>
       <c r="C407" t="n">
-        <v>216.835</v>
+        <v>216.84</v>
       </c>
       <c r="D407" t="n">
         <v>215.5</v>
@@ -10393,7 +10393,7 @@
         <v>240.23</v>
       </c>
       <c r="C408" t="n">
-        <v>227.215</v>
+        <v>227.22</v>
       </c>
       <c r="D408" t="n">
         <v>221.09</v>
@@ -10447,7 +10447,7 @@
         <v>236.78</v>
       </c>
       <c r="C410" t="n">
-        <v>206.4625</v>
+        <v>206.46</v>
       </c>
       <c r="D410" t="n">
         <v>213.52</v>
@@ -10474,7 +10474,7 @@
         <v>233.47</v>
       </c>
       <c r="C411" t="n">
-        <v>222.495</v>
+        <v>222.5</v>
       </c>
       <c r="D411" t="n">
         <v>213.43</v>
@@ -10541,7 +10541,7 @@
         <v>245.38</v>
       </c>
       <c r="C414" t="n">
-        <v>192.315</v>
+        <v>192.31</v>
       </c>
       <c r="D414" t="n">
         <v>190.74</v>
@@ -10591,7 +10591,7 @@
         <v>247.35</v>
       </c>
       <c r="C416" t="n">
-        <v>209.7725</v>
+        <v>209.77</v>
       </c>
       <c r="D416" t="n">
         <v>218.49</v>
@@ -10618,7 +10618,7 @@
         <v>238.04</v>
       </c>
       <c r="C417" t="n">
-        <v>195.8325</v>
+        <v>195.83</v>
       </c>
       <c r="D417" t="n">
         <v>189.5</v>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="n">
-        <v>206.7875</v>
+        <v>206.79</v>
       </c>
       <c r="D420" t="n">
         <v>208.48</v>
@@ -10964,7 +10964,7 @@
         <v>269.11</v>
       </c>
       <c r="C431" t="n">
-        <v>205.2575</v>
+        <v>205.26</v>
       </c>
       <c r="D431" t="n">
         <v>200.63</v>
@@ -11041,7 +11041,7 @@
         <v>255.09</v>
       </c>
       <c r="C434" t="n">
-        <v>212.4975</v>
+        <v>212.5</v>
       </c>
       <c r="D434" t="n">
         <v>200.42</v>
@@ -11110,7 +11110,7 @@
         <v>300.25</v>
       </c>
       <c r="C437" t="n">
-        <v>209.385</v>
+        <v>209.38</v>
       </c>
       <c r="D437" t="n">
         <v>204.53</v>
@@ -11160,7 +11160,7 @@
         <v>260.73</v>
       </c>
       <c r="C439" t="n">
-        <v>212.5175</v>
+        <v>212.52</v>
       </c>
       <c r="D439" t="n">
         <v>204.56</v>
@@ -11187,7 +11187,7 @@
         <v>251.94</v>
       </c>
       <c r="C440" t="n">
-        <v>222.905</v>
+        <v>222.91</v>
       </c>
       <c r="D440" t="n">
         <v>214.69</v>
@@ -11310,7 +11310,7 @@
         <v>198.22</v>
       </c>
       <c r="E445" t="n">
-        <v>201.4100000000001</v>
+        <v>201.41</v>
       </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr">
@@ -11329,7 +11329,7 @@
         <v>271.85</v>
       </c>
       <c r="C446" t="n">
-        <v>233.205</v>
+        <v>233.21</v>
       </c>
       <c r="D446" t="n">
         <v>222.27</v>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B448" t="inlineStr"/>
       <c r="C448" t="n">
-        <v>247.5075</v>
+        <v>247.51</v>
       </c>
       <c r="D448" t="n">
         <v>213.46</v>
@@ -11425,7 +11425,7 @@
         <v>244.41</v>
       </c>
       <c r="C450" t="n">
-        <v>226.0575</v>
+        <v>226.06</v>
       </c>
       <c r="D450" t="n">
         <v>204.86</v>
@@ -11452,7 +11452,7 @@
         <v>260.84</v>
       </c>
       <c r="C451" t="n">
-        <v>217.9075</v>
+        <v>217.91</v>
       </c>
       <c r="D451" t="n">
         <v>219.31</v>
@@ -11590,7 +11590,7 @@
         <v>232.83</v>
       </c>
       <c r="C457" t="n">
-        <v>224.9225</v>
+        <v>224.92</v>
       </c>
       <c r="D457" t="n">
         <v>218.3</v>
@@ -11617,7 +11617,7 @@
         <v>253.58</v>
       </c>
       <c r="C458" t="n">
-        <v>237.4725</v>
+        <v>237.47</v>
       </c>
       <c r="D458" t="n">
         <v>226.45</v>
@@ -11644,7 +11644,7 @@
         <v>227.09</v>
       </c>
       <c r="C459" t="n">
-        <v>223.0275</v>
+        <v>223.03</v>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
@@ -11713,7 +11713,7 @@
         <v>238.27</v>
       </c>
       <c r="C462" t="n">
-        <v>223.145</v>
+        <v>223.15</v>
       </c>
       <c r="D462" t="n">
         <v>216.8</v>
@@ -11786,7 +11786,7 @@
         <v>251.95</v>
       </c>
       <c r="C465" t="n">
-        <v>234.245</v>
+        <v>234.25</v>
       </c>
       <c r="D465" t="n">
         <v>226.49</v>
@@ -11888,7 +11888,7 @@
         <v>272.61</v>
       </c>
       <c r="C469" t="n">
-        <v>226.3825</v>
+        <v>226.38</v>
       </c>
       <c r="D469" t="n">
         <v>218.14</v>
@@ -11915,7 +11915,7 @@
         <v>240.7</v>
       </c>
       <c r="C470" t="n">
-        <v>230.1325</v>
+        <v>230.13</v>
       </c>
       <c r="D470" t="n">
         <v>220.93</v>
@@ -11942,7 +11942,7 @@
         <v>246.15</v>
       </c>
       <c r="C471" t="n">
-        <v>229.455</v>
+        <v>229.46</v>
       </c>
       <c r="D471" t="n">
         <v>224.24</v>
@@ -12036,7 +12036,7 @@
         <v>269.74</v>
       </c>
       <c r="C475" t="n">
-        <v>233.175</v>
+        <v>233.18</v>
       </c>
       <c r="D475" t="n">
         <v>226.53</v>
@@ -12132,7 +12132,7 @@
         <v>238.01</v>
       </c>
       <c r="C479" t="n">
-        <v>230.865</v>
+        <v>230.87</v>
       </c>
       <c r="D479" t="n">
         <v>223.19</v>
@@ -12159,7 +12159,7 @@
         <v>243.35</v>
       </c>
       <c r="C480" t="n">
-        <v>234.665</v>
+        <v>234.66</v>
       </c>
       <c r="D480" t="n">
         <v>214.78</v>
@@ -12186,7 +12186,7 @@
         <v>238.54</v>
       </c>
       <c r="C481" t="n">
-        <v>226.745</v>
+        <v>226.75</v>
       </c>
       <c r="D481" t="n">
         <v>219.77</v>
@@ -12213,7 +12213,7 @@
         <v>271.02</v>
       </c>
       <c r="C482" t="n">
-        <v>240.2225</v>
+        <v>240.22</v>
       </c>
       <c r="D482" t="n">
         <v>226.42</v>
@@ -12257,7 +12257,7 @@
         <v>259.26</v>
       </c>
       <c r="C484" t="n">
-        <v>231.485</v>
+        <v>231.49</v>
       </c>
       <c r="D484" t="n">
         <v>226.43</v>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="n">
-        <v>267.7125</v>
+        <v>267.71</v>
       </c>
       <c r="D491" t="n">
         <v>235.98</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="n">
-        <v>270.0925</v>
+        <v>270.09</v>
       </c>
       <c r="D492" t="n">
         <v>236.18</v>
@@ -12476,7 +12476,7 @@
         <v>249.02</v>
       </c>
       <c r="C493" t="n">
-        <v>235.2025</v>
+        <v>235.2</v>
       </c>
       <c r="D493" t="n">
         <v>213.2</v>
@@ -12503,7 +12503,7 @@
         <v>238.43</v>
       </c>
       <c r="C494" t="n">
-        <v>233.165</v>
+        <v>233.16</v>
       </c>
       <c r="D494" t="n">
         <v>216.29</v>
@@ -12530,7 +12530,7 @@
         <v>254.82</v>
       </c>
       <c r="C495" t="n">
-        <v>237.8875</v>
+        <v>237.89</v>
       </c>
       <c r="D495" t="n">
         <v>221.13</v>
@@ -12557,7 +12557,7 @@
         <v>253.21</v>
       </c>
       <c r="C496" t="n">
-        <v>227.6375</v>
+        <v>227.64</v>
       </c>
       <c r="D496" t="n">
         <v>218.84</v>
@@ -12611,7 +12611,7 @@
         <v>239.3</v>
       </c>
       <c r="C498" t="n">
-        <v>229.2075</v>
+        <v>229.21</v>
       </c>
       <c r="D498" t="n">
         <v>221.68</v>
@@ -12661,7 +12661,7 @@
         <v>239.24</v>
       </c>
       <c r="C500" t="n">
-        <v>248.5225</v>
+        <v>248.52</v>
       </c>
       <c r="D500" t="n">
         <v>215.67</v>
@@ -12688,7 +12688,7 @@
         <v>230.45</v>
       </c>
       <c r="C501" t="n">
-        <v>250.3575</v>
+        <v>250.36</v>
       </c>
       <c r="D501" t="n">
         <v>222.01</v>
@@ -12715,7 +12715,7 @@
         <v>247.81</v>
       </c>
       <c r="C502" t="n">
-        <v>228.955</v>
+        <v>228.96</v>
       </c>
       <c r="D502" t="n">
         <v>222.34</v>
@@ -12761,7 +12761,7 @@
         <v>272.07</v>
       </c>
       <c r="C504" t="n">
-        <v>239.515</v>
+        <v>239.51</v>
       </c>
       <c r="D504" t="n">
         <v>219.21</v>
@@ -12788,7 +12788,7 @@
         <v>224.67</v>
       </c>
       <c r="C505" t="n">
-        <v>246.2675</v>
+        <v>246.27</v>
       </c>
       <c r="D505" t="n">
         <v>214.22</v>
@@ -12813,7 +12813,7 @@
         <v>229.02</v>
       </c>
       <c r="C506" t="n">
-        <v>249.7925</v>
+        <v>249.79</v>
       </c>
       <c r="D506" t="n">
         <v>221.62</v>
@@ -12840,7 +12840,7 @@
         <v>217.08</v>
       </c>
       <c r="C507" t="n">
-        <v>226.2925</v>
+        <v>226.29</v>
       </c>
       <c r="D507" t="n">
         <v>216.37</v>
@@ -12867,7 +12867,7 @@
         <v>229.18</v>
       </c>
       <c r="C508" t="n">
-        <v>222.8325</v>
+        <v>222.83</v>
       </c>
       <c r="D508" t="n">
         <v>217.03</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="n">
-        <v>236.0725</v>
+        <v>236.07</v>
       </c>
       <c r="D510" t="n">
         <v>208.7</v>
@@ -12946,7 +12946,7 @@
         <v>262.25</v>
       </c>
       <c r="C511" t="n">
-        <v>230.555</v>
+        <v>230.56</v>
       </c>
       <c r="D511" t="n">
         <v>212.9</v>
@@ -12973,7 +12973,7 @@
         <v>249.24</v>
       </c>
       <c r="C512" t="n">
-        <v>225.0725</v>
+        <v>225.07</v>
       </c>
       <c r="D512" t="n">
         <v>213.39</v>
@@ -13171,7 +13171,7 @@
         <v>208.81</v>
       </c>
       <c r="C520" t="n">
-        <v>219.6325</v>
+        <v>219.63</v>
       </c>
       <c r="D520" t="n">
         <v>217.21</v>
@@ -13223,7 +13223,7 @@
         <v>221.17</v>
       </c>
       <c r="C522" t="n">
-        <v>223.7675</v>
+        <v>223.77</v>
       </c>
       <c r="D522" t="n">
         <v>226.06</v>
@@ -13250,7 +13250,7 @@
         <v>248.85</v>
       </c>
       <c r="C523" t="n">
-        <v>230.055</v>
+        <v>230.06</v>
       </c>
       <c r="D523" t="n">
         <v>225.26</v>
@@ -13277,7 +13277,7 @@
         <v>283.5</v>
       </c>
       <c r="C524" t="n">
-        <v>220.1325</v>
+        <v>220.13</v>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr"/>
@@ -13534,7 +13534,7 @@
         <v>259.96</v>
       </c>
       <c r="C535" t="n">
-        <v>237.9025</v>
+        <v>237.9</v>
       </c>
       <c r="D535" t="n">
         <v>213.52</v>
@@ -13559,7 +13559,7 @@
         <v>256.08</v>
       </c>
       <c r="C536" t="n">
-        <v>223.6475</v>
+        <v>223.65</v>
       </c>
       <c r="D536" t="n">
         <v>229.58</v>
@@ -13586,7 +13586,7 @@
         <v>253.8</v>
       </c>
       <c r="C537" t="n">
-        <v>231.0925</v>
+        <v>231.09</v>
       </c>
       <c r="D537" t="n">
         <v>225.61</v>
@@ -13613,7 +13613,7 @@
         <v>216.24</v>
       </c>
       <c r="C538" t="n">
-        <v>213.4175</v>
+        <v>213.42</v>
       </c>
       <c r="D538" t="n">
         <v>213.34</v>
@@ -13640,7 +13640,7 @@
         <v>222.02</v>
       </c>
       <c r="C539" t="n">
-        <v>224.8425</v>
+        <v>224.84</v>
       </c>
       <c r="D539" t="n">
         <v>217.69</v>
@@ -13748,7 +13748,7 @@
         <v>252.28</v>
       </c>
       <c r="C543" t="n">
-        <v>229.025</v>
+        <v>229.03</v>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
@@ -13769,7 +13769,7 @@
         <v>259.88</v>
       </c>
       <c r="C544" t="n">
-        <v>215.065</v>
+        <v>215.06</v>
       </c>
       <c r="D544" t="n">
         <v>217.41</v>
@@ -13840,7 +13840,7 @@
         <v>209.3</v>
       </c>
       <c r="C547" t="n">
-        <v>213.0325</v>
+        <v>213.03</v>
       </c>
       <c r="D547" t="n">
         <v>209.45</v>
@@ -13867,7 +13867,7 @@
         <v>230.56</v>
       </c>
       <c r="C548" t="n">
-        <v>225.615</v>
+        <v>225.62</v>
       </c>
       <c r="D548" t="n">
         <v>220.63</v>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="B549" t="inlineStr"/>
       <c r="C549" t="n">
-        <v>220.4775</v>
+        <v>220.48</v>
       </c>
       <c r="D549" t="n">
         <v>217.14</v>
@@ -13919,7 +13919,7 @@
         <v>243.01</v>
       </c>
       <c r="C550" t="n">
-        <v>224.265</v>
+        <v>224.26</v>
       </c>
       <c r="D550" t="n">
         <v>220.9</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="B553" t="inlineStr"/>
       <c r="C553" t="n">
-        <v>218.1325</v>
+        <v>218.13</v>
       </c>
       <c r="D553" t="n">
         <v>219.44</v>
@@ -14023,7 +14023,7 @@
       </c>
       <c r="B554" t="inlineStr"/>
       <c r="C554" t="n">
-        <v>216.8575</v>
+        <v>216.86</v>
       </c>
       <c r="D554" t="n">
         <v>231.9</v>
@@ -14050,7 +14050,7 @@
         <v>239.24</v>
       </c>
       <c r="C555" t="n">
-        <v>215.3175</v>
+        <v>215.32</v>
       </c>
       <c r="D555" t="n">
         <v>219.28</v>
@@ -14077,7 +14077,7 @@
         <v>245.54</v>
       </c>
       <c r="C556" t="n">
-        <v>232.8225</v>
+        <v>232.82</v>
       </c>
       <c r="D556" t="n">
         <v>216.1</v>
@@ -14104,7 +14104,7 @@
         <v>215.52</v>
       </c>
       <c r="C557" t="n">
-        <v>228.0575</v>
+        <v>228.06</v>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr"/>
@@ -14125,7 +14125,7 @@
         <v>223.18</v>
       </c>
       <c r="C558" t="n">
-        <v>226.7825</v>
+        <v>226.78</v>
       </c>
       <c r="D558" t="n">
         <v>222.74</v>
@@ -14202,7 +14202,7 @@
         <v>222.61</v>
       </c>
       <c r="C561" t="n">
-        <v>225.7225</v>
+        <v>225.72</v>
       </c>
       <c r="D561" t="n">
         <v>222.36</v>
@@ -14229,7 +14229,7 @@
         <v>204.4</v>
       </c>
       <c r="C562" t="n">
-        <v>221.895</v>
+        <v>221.9</v>
       </c>
       <c r="D562" t="n">
         <v>219.27</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="n">
-        <v>233.0875</v>
+        <v>233.09</v>
       </c>
       <c r="D564" t="n">
         <v>224.71</v>
@@ -14325,7 +14325,7 @@
         <v>202.87</v>
       </c>
       <c r="C566" t="n">
-        <v>221.2575</v>
+        <v>221.26</v>
       </c>
       <c r="D566" t="n">
         <v>220.16</v>
@@ -14352,7 +14352,7 @@
         <v>200.24</v>
       </c>
       <c r="C567" t="n">
-        <v>213.9325</v>
+        <v>213.93</v>
       </c>
       <c r="D567" t="n">
         <v>224.93</v>
@@ -14433,7 +14433,7 @@
         <v>234.3</v>
       </c>
       <c r="C570" t="n">
-        <v>227.1325</v>
+        <v>227.13</v>
       </c>
       <c r="D570" t="n">
         <v>224.44</v>
@@ -14483,7 +14483,7 @@
         <v>244.61</v>
       </c>
       <c r="C572" t="n">
-        <v>229.3775</v>
+        <v>229.38</v>
       </c>
       <c r="D572" t="n">
         <v>217.11</v>
@@ -14552,7 +14552,7 @@
         <v>253.35</v>
       </c>
       <c r="C575" t="n">
-        <v>227.8375</v>
+        <v>227.84</v>
       </c>
       <c r="D575" t="n">
         <v>227.45</v>
@@ -14575,7 +14575,7 @@
         <v>250.16</v>
       </c>
       <c r="C576" t="n">
-        <v>227.745</v>
+        <v>227.75</v>
       </c>
       <c r="D576" t="n">
         <v>213.13</v>
@@ -14600,7 +14600,7 @@
         <v>247.61</v>
       </c>
       <c r="C577" t="n">
-        <v>229.8225</v>
+        <v>229.82</v>
       </c>
       <c r="D577" t="n">
         <v>226.84</v>
@@ -14721,7 +14721,7 @@
         <v>256.17</v>
       </c>
       <c r="C582" t="n">
-        <v>236.5425</v>
+        <v>236.54</v>
       </c>
       <c r="D582" t="n">
         <v>227.74</v>
@@ -14748,7 +14748,7 @@
         <v>248.66</v>
       </c>
       <c r="C583" t="n">
-        <v>230.9275</v>
+        <v>230.93</v>
       </c>
       <c r="D583" t="n">
         <v>227.03</v>
@@ -14775,7 +14775,7 @@
         <v>253.39</v>
       </c>
       <c r="C584" t="n">
-        <v>230.905</v>
+        <v>230.91</v>
       </c>
       <c r="D584" t="n">
         <v>227.9</v>
@@ -14798,7 +14798,7 @@
         <v>200.82</v>
       </c>
       <c r="C585" t="n">
-        <v>220.6225</v>
+        <v>220.62</v>
       </c>
       <c r="D585" t="n">
         <v>222.34</v>
@@ -14825,7 +14825,7 @@
         <v>230.14</v>
       </c>
       <c r="C586" t="n">
-        <v>225.5575</v>
+        <v>225.56</v>
       </c>
       <c r="D586" t="n">
         <v>224.16</v>
@@ -14875,7 +14875,7 @@
         <v>217.24</v>
       </c>
       <c r="C588" t="n">
-        <v>225.0225</v>
+        <v>225.02</v>
       </c>
       <c r="D588" t="n">
         <v>220.65</v>
@@ -14902,10 +14902,10 @@
         <v>224.11</v>
       </c>
       <c r="C589" t="n">
-        <v>222.365</v>
+        <v>222.37</v>
       </c>
       <c r="D589" t="n">
-        <v>215.9100000000001</v>
+        <v>215.91</v>
       </c>
       <c r="E589" t="n">
         <v>209.84</v>
@@ -14929,7 +14929,7 @@
         <v>252.11</v>
       </c>
       <c r="C590" t="n">
-        <v>229.9775</v>
+        <v>229.98</v>
       </c>
       <c r="D590" t="n">
         <v>225.59</v>
@@ -14952,7 +14952,7 @@
         <v>248.06</v>
       </c>
       <c r="C591" t="n">
-        <v>226.045</v>
+        <v>226.04</v>
       </c>
       <c r="D591" t="n">
         <v>226.27</v>
@@ -14979,7 +14979,7 @@
         <v>265.97</v>
       </c>
       <c r="C592" t="n">
-        <v>231.0525</v>
+        <v>231.05</v>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr"/>
@@ -15042,7 +15042,7 @@
         <v>226.79</v>
       </c>
       <c r="C595" t="n">
-        <v>210.295</v>
+        <v>210.29</v>
       </c>
       <c r="D595" t="n">
         <v>210.3</v>
@@ -15096,7 +15096,7 @@
         <v>199.11</v>
       </c>
       <c r="C597" t="n">
-        <v>219.5875</v>
+        <v>219.59</v>
       </c>
       <c r="D597" t="n">
         <v>217.46</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="n">
-        <v>222.155</v>
+        <v>222.16</v>
       </c>
       <c r="D598" t="n">
         <v>220.84</v>
@@ -15148,7 +15148,7 @@
         <v>225.61</v>
       </c>
       <c r="C599" t="n">
-        <v>226.095</v>
+        <v>226.09</v>
       </c>
       <c r="D599" t="n">
         <v>219.81</v>
@@ -15175,7 +15175,7 @@
         <v>259.55</v>
       </c>
       <c r="C600" t="n">
-        <v>235.4825</v>
+        <v>235.48</v>
       </c>
       <c r="D600" t="n">
         <v>199.64</v>
@@ -15198,7 +15198,7 @@
         <v>239.34</v>
       </c>
       <c r="C601" t="n">
-        <v>230.4525</v>
+        <v>230.45</v>
       </c>
       <c r="D601" t="n">
         <v>224.65</v>
@@ -15225,7 +15225,7 @@
         <v>209.81</v>
       </c>
       <c r="C602" t="n">
-        <v>222.2725</v>
+        <v>222.27</v>
       </c>
       <c r="D602" t="n">
         <v>214.09</v>
@@ -15252,7 +15252,7 @@
         <v>243.79</v>
       </c>
       <c r="C603" t="n">
-        <v>230.2225</v>
+        <v>230.22</v>
       </c>
       <c r="D603" t="n">
         <v>224.31</v>
@@ -15279,7 +15279,7 @@
         <v>274.85</v>
       </c>
       <c r="C604" t="n">
-        <v>225.725</v>
+        <v>225.72</v>
       </c>
       <c r="D604" t="n">
         <v>219.8</v>
@@ -15306,7 +15306,7 @@
         <v>264.86</v>
       </c>
       <c r="C605" t="n">
-        <v>216.295</v>
+        <v>216.29</v>
       </c>
       <c r="D605" t="n">
         <v>227.95</v>
@@ -15333,7 +15333,7 @@
         <v>271.86</v>
       </c>
       <c r="C606" t="n">
-        <v>219.135</v>
+        <v>219.13</v>
       </c>
       <c r="D606" t="n">
         <v>216.48</v>
@@ -15360,7 +15360,7 @@
         <v>258.53</v>
       </c>
       <c r="C607" t="n">
-        <v>216.9825</v>
+        <v>216.98</v>
       </c>
       <c r="D607" t="n">
         <v>227.35</v>
@@ -15387,7 +15387,7 @@
         <v>239.85</v>
       </c>
       <c r="C608" t="n">
-        <v>230.1275</v>
+        <v>230.13</v>
       </c>
       <c r="D608" t="n">
         <v>223.73</v>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B612" t="inlineStr"/>
       <c r="C612" t="n">
-        <v>224.0275</v>
+        <v>224.03</v>
       </c>
       <c r="D612" t="n">
         <v>222.69</v>
@@ -15518,7 +15518,7 @@
         <v>244.25</v>
       </c>
       <c r="C613" t="n">
-        <v>228.6825</v>
+        <v>228.68</v>
       </c>
       <c r="D613" t="n">
         <v>225.04</v>
@@ -15545,7 +15545,7 @@
         <v>242.9</v>
       </c>
       <c r="C614" t="n">
-        <v>211.015</v>
+        <v>211.01</v>
       </c>
       <c r="D614" t="n">
         <v>225.16</v>
@@ -15572,7 +15572,7 @@
         <v>262.23</v>
       </c>
       <c r="C615" t="n">
-        <v>229.415</v>
+        <v>229.41</v>
       </c>
       <c r="D615" t="n">
         <v>226.01</v>
@@ -15599,7 +15599,7 @@
         <v>240.06</v>
       </c>
       <c r="C616" t="n">
-        <v>210.625</v>
+        <v>210.62</v>
       </c>
       <c r="D616" t="n">
         <v>211.89</v>
@@ -15645,7 +15645,7 @@
       </c>
       <c r="B618" t="inlineStr"/>
       <c r="C618" t="n">
-        <v>225.695</v>
+        <v>225.69</v>
       </c>
       <c r="D618" t="n">
         <v>222.45</v>
@@ -15672,7 +15672,7 @@
         <v>237.86</v>
       </c>
       <c r="C619" t="n">
-        <v>214.855</v>
+        <v>214.85</v>
       </c>
       <c r="D619" t="n">
         <v>231.84</v>
@@ -15722,7 +15722,7 @@
         <v>224.59</v>
       </c>
       <c r="C621" t="n">
-        <v>217.2975</v>
+        <v>217.3</v>
       </c>
       <c r="D621" t="n">
         <v>219.11</v>
@@ -15776,7 +15776,7 @@
         <v>226.39</v>
       </c>
       <c r="C623" t="n">
-        <v>222.965</v>
+        <v>222.97</v>
       </c>
       <c r="D623" t="n">
         <v>218.6</v>
@@ -15803,7 +15803,7 @@
         <v>235.44</v>
       </c>
       <c r="C624" t="n">
-        <v>220.2025</v>
+        <v>220.2</v>
       </c>
       <c r="D624" t="n">
         <v>219.49</v>
@@ -15830,7 +15830,7 @@
         <v>225.28</v>
       </c>
       <c r="C625" t="n">
-        <v>211.1225</v>
+        <v>211.12</v>
       </c>
       <c r="D625" t="n">
         <v>222.42</v>
@@ -15857,7 +15857,7 @@
         <v>236.68</v>
       </c>
       <c r="C626" t="n">
-        <v>210.825</v>
+        <v>210.82</v>
       </c>
       <c r="D626" t="n">
         <v>229.92</v>
@@ -15911,7 +15911,7 @@
         <v>217.22</v>
       </c>
       <c r="C628" t="n">
-        <v>208.2825</v>
+        <v>208.28</v>
       </c>
       <c r="D628" t="n">
         <v>211.48</v>
@@ -15938,7 +15938,7 @@
         <v>230.63</v>
       </c>
       <c r="C629" t="n">
-        <v>206.9725</v>
+        <v>206.97</v>
       </c>
       <c r="D629" t="n">
         <v>221.65</v>
@@ -15965,7 +15965,7 @@
         <v>221.92</v>
       </c>
       <c r="C630" t="n">
-        <v>213.1675</v>
+        <v>213.17</v>
       </c>
       <c r="D630" t="n">
         <v>219.93</v>
@@ -16019,7 +16019,7 @@
         <v>214.61</v>
       </c>
       <c r="C632" t="n">
-        <v>220.9075</v>
+        <v>220.91</v>
       </c>
       <c r="D632" t="n">
         <v>220.21</v>
@@ -16046,7 +16046,7 @@
         <v>237.31</v>
       </c>
       <c r="C633" t="n">
-        <v>219.2425</v>
+        <v>219.24</v>
       </c>
       <c r="D633" t="n">
         <v>221.91</v>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B635" t="inlineStr"/>
       <c r="C635" t="n">
-        <v>213.8375</v>
+        <v>213.84</v>
       </c>
       <c r="D635" t="n">
         <v>224.07</v>
@@ -16117,7 +16117,7 @@
         <v>236.37</v>
       </c>
       <c r="C636" t="n">
-        <v>210.6575</v>
+        <v>210.66</v>
       </c>
       <c r="D636" t="n">
         <v>224.99</v>
@@ -16165,7 +16165,7 @@
         <v>254.56</v>
       </c>
       <c r="C638" t="n">
-        <v>224.895</v>
+        <v>224.9</v>
       </c>
       <c r="D638" t="n">
         <v>224.59</v>
@@ -16188,7 +16188,7 @@
         <v>258.44</v>
       </c>
       <c r="C639" t="n">
-        <v>224.3025</v>
+        <v>224.3</v>
       </c>
       <c r="D639" t="n">
         <v>224.73</v>
@@ -16215,7 +16215,7 @@
         <v>237.18</v>
       </c>
       <c r="C640" t="n">
-        <v>207.215</v>
+        <v>207.22</v>
       </c>
       <c r="D640" t="n">
         <v>222.24</v>
@@ -16269,7 +16269,7 @@
         <v>229.8</v>
       </c>
       <c r="C642" t="n">
-        <v>218.9725</v>
+        <v>218.97</v>
       </c>
       <c r="D642" t="n">
         <v>217.85</v>
@@ -16296,7 +16296,7 @@
         <v>223.35</v>
       </c>
       <c r="C643" t="n">
-        <v>221.925</v>
+        <v>221.93</v>
       </c>
       <c r="D643" t="n">
         <v>221.23</v>
@@ -16323,7 +16323,7 @@
         <v>218.85</v>
       </c>
       <c r="C644" t="n">
-        <v>222.2475</v>
+        <v>222.25</v>
       </c>
       <c r="D644" t="n">
         <v>219.83</v>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="n">
-        <v>245.6775</v>
+        <v>245.68</v>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr"/>
@@ -16371,7 +16371,7 @@
         <v>204.4</v>
       </c>
       <c r="C646" t="n">
-        <v>220.5175</v>
+        <v>220.52</v>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="n">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="n">
-        <v>228.3425</v>
+        <v>228.34</v>
       </c>
       <c r="D647" t="n">
         <v>223.46</v>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="B649" t="inlineStr"/>
       <c r="C649" t="n">
-        <v>215.7625</v>
+        <v>215.76</v>
       </c>
       <c r="D649" t="n">
         <v>222.42</v>
@@ -16465,7 +16465,7 @@
         <v>205.92</v>
       </c>
       <c r="C650" t="n">
-        <v>221.6875</v>
+        <v>221.69</v>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr"/>
@@ -16486,7 +16486,7 @@
         <v>202.87</v>
       </c>
       <c r="C651" t="n">
-        <v>222.6975</v>
+        <v>222.7</v>
       </c>
       <c r="D651" t="n">
         <v>245.76</v>
@@ -16513,7 +16513,7 @@
         <v>203.14</v>
       </c>
       <c r="C652" t="n">
-        <v>210.0725</v>
+        <v>210.07</v>
       </c>
       <c r="D652" t="n">
         <v>214.9</v>
@@ -16540,7 +16540,7 @@
         <v>240.69</v>
       </c>
       <c r="C653" t="n">
-        <v>211.105</v>
+        <v>211.1</v>
       </c>
       <c r="D653" t="n">
         <v>223.84</v>
@@ -16567,7 +16567,7 @@
         <v>234.07</v>
       </c>
       <c r="C654" t="n">
-        <v>218.2325</v>
+        <v>218.23</v>
       </c>
       <c r="D654" t="n">
         <v>222.69</v>
@@ -16594,7 +16594,7 @@
         <v>237.42</v>
       </c>
       <c r="C655" t="n">
-        <v>222.135</v>
+        <v>222.13</v>
       </c>
       <c r="D655" t="n">
         <v>220.38</v>
@@ -16619,7 +16619,7 @@
         <v>209.34</v>
       </c>
       <c r="C656" t="n">
-        <v>226.6125</v>
+        <v>226.61</v>
       </c>
       <c r="D656" t="n">
         <v>254.84</v>
@@ -16628,7 +16628,7 @@
         <v>209.77</v>
       </c>
       <c r="F656" t="n">
-        <v>206.6600000000001</v>
+        <v>206.66</v>
       </c>
       <c r="G656" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>228.77</v>
       </c>
       <c r="C661" t="n">
-        <v>227.7475</v>
+        <v>227.75</v>
       </c>
       <c r="D661" t="n">
         <v>222</v>
@@ -16769,7 +16769,7 @@
         <v>222.79</v>
       </c>
       <c r="C662" t="n">
-        <v>223.305</v>
+        <v>223.31</v>
       </c>
       <c r="D662" t="n">
         <v>220.82</v>
@@ -16819,7 +16819,7 @@
         <v>236.95</v>
       </c>
       <c r="C664" t="n">
-        <v>228.5975</v>
+        <v>228.6</v>
       </c>
       <c r="D664" t="n">
         <v>224.42</v>
@@ -16871,7 +16871,7 @@
         <v>205.57</v>
       </c>
       <c r="C666" t="n">
-        <v>221.4125</v>
+        <v>221.41</v>
       </c>
       <c r="D666" t="n">
         <v>218.34</v>
@@ -16950,7 +16950,7 @@
       </c>
       <c r="B669" t="inlineStr"/>
       <c r="C669" t="n">
-        <v>229.5325</v>
+        <v>229.53</v>
       </c>
       <c r="D669" t="n">
         <v>224.43</v>
@@ -16977,7 +16977,7 @@
         <v>255.02</v>
       </c>
       <c r="C670" t="n">
-        <v>230.375</v>
+        <v>230.38</v>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
@@ -17000,7 +17000,7 @@
         <v>261.68</v>
       </c>
       <c r="C671" t="n">
-        <v>236.4125</v>
+        <v>236.41</v>
       </c>
       <c r="D671" t="n">
         <v>222.84</v>
@@ -17054,7 +17054,7 @@
         <v>219.35</v>
       </c>
       <c r="E673" t="n">
-        <v>216.1600000000001</v>
+        <v>216.16</v>
       </c>
       <c r="F673" t="n">
         <v>213.65</v>
@@ -17121,7 +17121,7 @@
         <v>223.61</v>
       </c>
       <c r="C676" t="n">
-        <v>228.0125</v>
+        <v>228.01</v>
       </c>
       <c r="D676" t="n">
         <v>223.9</v>
@@ -17173,7 +17173,7 @@
         <v>206.51</v>
       </c>
       <c r="C678" t="n">
-        <v>250.595</v>
+        <v>250.59</v>
       </c>
       <c r="D678" t="n">
         <v>236.37</v>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="B679" t="inlineStr"/>
       <c r="C679" t="n">
-        <v>257.9125</v>
+        <v>257.91</v>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="n">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="B680" t="inlineStr"/>
       <c r="C680" t="n">
-        <v>243.9925</v>
+        <v>243.99</v>
       </c>
       <c r="D680" t="n">
         <v>230.43</v>
@@ -17246,7 +17246,7 @@
         <v>207.03</v>
       </c>
       <c r="C681" t="n">
-        <v>222.085</v>
+        <v>222.09</v>
       </c>
       <c r="D681" t="n">
         <v>221.82</v>
@@ -17275,7 +17275,7 @@
         <v>224.5</v>
       </c>
       <c r="E682" t="n">
-        <v>215.4100000000001</v>
+        <v>215.41</v>
       </c>
       <c r="F682" t="n">
         <v>215.43</v>
@@ -17377,7 +17377,7 @@
         <v>252.75</v>
       </c>
       <c r="C686" t="n">
-        <v>243.725</v>
+        <v>243.72</v>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="n">
@@ -17402,7 +17402,7 @@
         <v>258.82</v>
       </c>
       <c r="C687" t="n">
-        <v>237.245</v>
+        <v>237.25</v>
       </c>
       <c r="D687" t="n">
         <v>235.28</v>
@@ -17429,7 +17429,7 @@
         <v>226.43</v>
       </c>
       <c r="C688" t="n">
-        <v>230.5675</v>
+        <v>230.57</v>
       </c>
       <c r="D688" t="n">
         <v>234.04</v>
@@ -17479,7 +17479,7 @@
         <v>243.13</v>
       </c>
       <c r="C690" t="n">
-        <v>231.9875</v>
+        <v>231.99</v>
       </c>
       <c r="D690" t="n">
         <v>226.34</v>
@@ -17506,7 +17506,7 @@
         <v>222.35</v>
       </c>
       <c r="C691" t="n">
-        <v>225.3975</v>
+        <v>225.4</v>
       </c>
       <c r="D691" t="n">
         <v>221.69</v>
@@ -17560,7 +17560,7 @@
         <v>238.31</v>
       </c>
       <c r="C693" t="n">
-        <v>224.425</v>
+        <v>224.43</v>
       </c>
       <c r="D693" t="n">
         <v>222.93</v>
@@ -17587,7 +17587,7 @@
         <v>261.66</v>
       </c>
       <c r="C694" t="n">
-        <v>231.3675</v>
+        <v>231.37</v>
       </c>
       <c r="D694" t="n">
         <v>225.29</v>
@@ -17614,7 +17614,7 @@
         <v>253.77</v>
       </c>
       <c r="C695" t="n">
-        <v>227.4475</v>
+        <v>227.45</v>
       </c>
       <c r="D695" t="n">
         <v>223.04</v>
@@ -17695,7 +17695,7 @@
         <v>208.6</v>
       </c>
       <c r="C698" t="n">
-        <v>222.5425</v>
+        <v>222.54</v>
       </c>
       <c r="D698" t="n">
         <v>219.58</v>
@@ -17749,7 +17749,7 @@
         <v>232.68</v>
       </c>
       <c r="C700" t="n">
-        <v>226.0275</v>
+        <v>226.03</v>
       </c>
       <c r="D700" t="n">
         <v>222.96</v>
@@ -17776,7 +17776,7 @@
         <v>234.09</v>
       </c>
       <c r="C701" t="n">
-        <v>227.6525</v>
+        <v>227.65</v>
       </c>
       <c r="D701" t="n">
         <v>221.59</v>
@@ -17884,7 +17884,7 @@
         <v>252.81</v>
       </c>
       <c r="C705" t="n">
-        <v>222.635</v>
+        <v>222.63</v>
       </c>
       <c r="D705" t="n">
         <v>230.05</v>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="B706" t="inlineStr"/>
       <c r="C706" t="n">
-        <v>226.8625</v>
+        <v>226.86</v>
       </c>
       <c r="D706" t="n">
         <v>226.29</v>
@@ -17936,7 +17936,7 @@
         <v>248.54</v>
       </c>
       <c r="C707" t="n">
-        <v>230.5775</v>
+        <v>230.58</v>
       </c>
       <c r="D707" t="n">
         <v>225.3</v>
@@ -17963,7 +17963,7 @@
         <v>255.25</v>
       </c>
       <c r="C708" t="n">
-        <v>235.4625</v>
+        <v>235.46</v>
       </c>
       <c r="D708" t="n">
         <v>218.04</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="B709" t="inlineStr"/>
       <c r="C709" t="n">
-        <v>216.3475</v>
+        <v>216.35</v>
       </c>
       <c r="D709" t="n">
         <v>216.43</v>
@@ -18042,7 +18042,7 @@
         <v>216.6</v>
       </c>
       <c r="C711" t="n">
-        <v>221.7425</v>
+        <v>221.74</v>
       </c>
       <c r="D711" t="n">
         <v>219.23</v>
@@ -18096,7 +18096,7 @@
         <v>251.9</v>
       </c>
       <c r="C713" t="n">
-        <v>228.9525</v>
+        <v>228.95</v>
       </c>
       <c r="D713" t="n">
         <v>225.81</v>
@@ -18246,7 +18246,7 @@
         <v>236.87</v>
       </c>
       <c r="C719" t="n">
-        <v>226.4075</v>
+        <v>226.41</v>
       </c>
       <c r="D719" t="n">
         <v>226.46</v>
@@ -18273,7 +18273,7 @@
         <v>261.37</v>
       </c>
       <c r="C720" t="n">
-        <v>220.7475</v>
+        <v>220.75</v>
       </c>
       <c r="D720" t="n">
         <v>218.88</v>
@@ -18348,7 +18348,7 @@
         <v>252.69</v>
       </c>
       <c r="C723" t="n">
-        <v>236.1225</v>
+        <v>236.12</v>
       </c>
       <c r="D723" t="n">
         <v>216.57</v>
@@ -18375,7 +18375,7 @@
         <v>275.02</v>
       </c>
       <c r="C724" t="n">
-        <v>213.7225</v>
+        <v>213.72</v>
       </c>
       <c r="D724" t="n">
         <v>217.56</v>
@@ -18419,7 +18419,7 @@
         <v>262.91</v>
       </c>
       <c r="C726" t="n">
-        <v>234.8675</v>
+        <v>234.87</v>
       </c>
       <c r="D726" t="n">
         <v>228.52</v>
@@ -18446,7 +18446,7 @@
         <v>290.39</v>
       </c>
       <c r="C727" t="n">
-        <v>212.1175</v>
+        <v>212.12</v>
       </c>
       <c r="D727" t="n">
         <v>214.57</v>
@@ -18471,7 +18471,7 @@
         <v>250.65</v>
       </c>
       <c r="C728" t="n">
-        <v>233.355</v>
+        <v>233.35</v>
       </c>
       <c r="D728" t="n">
         <v>225.03</v>
@@ -18498,7 +18498,7 @@
         <v>245.69</v>
       </c>
       <c r="C729" t="n">
-        <v>233.645</v>
+        <v>233.65</v>
       </c>
       <c r="D729" t="n">
         <v>231</v>
@@ -18550,7 +18550,7 @@
         <v>262.02</v>
       </c>
       <c r="C731" t="n">
-        <v>242.4475</v>
+        <v>242.45</v>
       </c>
       <c r="D731" t="n">
         <v>235.79</v>
@@ -18600,7 +18600,7 @@
         <v>234.36</v>
       </c>
       <c r="C733" t="n">
-        <v>227.3625</v>
+        <v>227.36</v>
       </c>
       <c r="D733" t="n">
         <v>222.99</v>
@@ -18627,7 +18627,7 @@
         <v>249.57</v>
       </c>
       <c r="C734" t="n">
-        <v>228.7025</v>
+        <v>228.7</v>
       </c>
       <c r="D734" t="n">
         <v>234.37</v>
@@ -18654,7 +18654,7 @@
         <v>253.93</v>
       </c>
       <c r="C735" t="n">
-        <v>237.595</v>
+        <v>237.59</v>
       </c>
       <c r="D735" t="n">
         <v>217.47</v>
@@ -18746,7 +18746,7 @@
         <v>252.03</v>
       </c>
       <c r="C739" t="n">
-        <v>220.5625</v>
+        <v>220.56</v>
       </c>
       <c r="D739" t="n">
         <v>217.02</v>
@@ -18773,7 +18773,7 @@
         <v>273.43</v>
       </c>
       <c r="C740" t="n">
-        <v>219.4125</v>
+        <v>219.41</v>
       </c>
       <c r="D740" t="n">
         <v>216.43</v>
@@ -18848,7 +18848,7 @@
         <v>238.08</v>
       </c>
       <c r="C743" t="n">
-        <v>228.9725</v>
+        <v>228.97</v>
       </c>
       <c r="D743" t="n">
         <v>223.81</v>
@@ -18902,7 +18902,7 @@
         <v>248.82</v>
       </c>
       <c r="C745" t="n">
-        <v>229.1125</v>
+        <v>229.11</v>
       </c>
       <c r="D745" t="n">
         <v>224.34</v>
@@ -18956,7 +18956,7 @@
         <v>248.9</v>
       </c>
       <c r="C747" t="n">
-        <v>223.3075</v>
+        <v>223.31</v>
       </c>
       <c r="D747" t="n">
         <v>218.28</v>
@@ -18983,7 +18983,7 @@
         <v>273.28</v>
       </c>
       <c r="C748" t="n">
-        <v>218.5275</v>
+        <v>218.53</v>
       </c>
       <c r="D748" t="n">
         <v>220.34</v>
@@ -19037,7 +19037,7 @@
         <v>264.41</v>
       </c>
       <c r="C750" t="n">
-        <v>230.3425</v>
+        <v>230.34</v>
       </c>
       <c r="D750" t="n">
         <v>227.55</v>
@@ -19064,7 +19064,7 @@
         <v>215.8</v>
       </c>
       <c r="C751" t="n">
-        <v>214.5175</v>
+        <v>214.52</v>
       </c>
       <c r="D751" t="n">
         <v>214.43</v>
@@ -19091,7 +19091,7 @@
         <v>251.83</v>
       </c>
       <c r="C752" t="n">
-        <v>231.0675</v>
+        <v>231.07</v>
       </c>
       <c r="D752" t="n">
         <v>225.96</v>
@@ -19145,7 +19145,7 @@
         <v>220.46</v>
       </c>
       <c r="C754" t="n">
-        <v>220.9775</v>
+        <v>220.98</v>
       </c>
       <c r="D754" t="n">
         <v>215.46</v>
@@ -19199,7 +19199,7 @@
         <v>228.85</v>
       </c>
       <c r="C756" t="n">
-        <v>226.2875</v>
+        <v>226.29</v>
       </c>
       <c r="D756" t="n">
         <v>219.73</v>
@@ -19226,7 +19226,7 @@
         <v>254.29</v>
       </c>
       <c r="C757" t="n">
-        <v>232.9625</v>
+        <v>232.96</v>
       </c>
       <c r="D757" t="n">
         <v>226.21</v>
@@ -19280,7 +19280,7 @@
         <v>251.36</v>
       </c>
       <c r="C759" t="n">
-        <v>230.6525</v>
+        <v>230.65</v>
       </c>
       <c r="D759" t="n">
         <v>226.03</v>
@@ -19307,7 +19307,7 @@
         <v>259.13</v>
       </c>
       <c r="C760" t="n">
-        <v>236.3725</v>
+        <v>236.37</v>
       </c>
       <c r="D760" t="n">
         <v>216.22</v>
@@ -19334,13 +19334,13 @@
         <v>227.86</v>
       </c>
       <c r="C761" t="n">
-        <v>223.0025</v>
+        <v>223</v>
       </c>
       <c r="D761" t="n">
         <v>215.46</v>
       </c>
       <c r="E761" t="n">
-        <v>207.1600000000001</v>
+        <v>207.16</v>
       </c>
       <c r="F761" t="n">
         <v>211.74</v>
@@ -19388,7 +19388,7 @@
         <v>263.21</v>
       </c>
       <c r="C763" t="n">
-        <v>232.465</v>
+        <v>232.47</v>
       </c>
       <c r="D763" t="n">
         <v>228.63</v>
@@ -19415,7 +19415,7 @@
         <v>270.19</v>
       </c>
       <c r="C764" t="n">
-        <v>234.9825</v>
+        <v>234.98</v>
       </c>
       <c r="D764" t="n">
         <v>215.32</v>
@@ -19442,7 +19442,7 @@
         <v>270</v>
       </c>
       <c r="C765" t="n">
-        <v>230.9625</v>
+        <v>230.96</v>
       </c>
       <c r="D765" t="n">
         <v>220</v>
@@ -19519,7 +19519,7 @@
         <v>263.43</v>
       </c>
       <c r="C768" t="n">
-        <v>234.0725</v>
+        <v>234.07</v>
       </c>
       <c r="D768" t="n">
         <v>225.81</v>
@@ -19565,7 +19565,7 @@
         <v>222.43</v>
       </c>
       <c r="C770" t="n">
-        <v>219.7325</v>
+        <v>219.73</v>
       </c>
       <c r="D770" t="n">
         <v>215.92</v>
@@ -19592,7 +19592,7 @@
         <v>251.8</v>
       </c>
       <c r="C771" t="n">
-        <v>233.9275</v>
+        <v>233.93</v>
       </c>
       <c r="D771" t="n">
         <v>225.81</v>
@@ -19619,7 +19619,7 @@
         <v>240.45</v>
       </c>
       <c r="C772" t="n">
-        <v>234.4825</v>
+        <v>234.48</v>
       </c>
       <c r="D772" t="n">
         <v>213.48</v>
@@ -19692,7 +19692,7 @@
         <v>243.26</v>
       </c>
       <c r="C775" t="n">
-        <v>217.7125</v>
+        <v>217.71</v>
       </c>
       <c r="D775" t="n">
         <v>227.75</v>
@@ -19719,7 +19719,7 @@
         <v>227.83</v>
       </c>
       <c r="C776" t="n">
-        <v>226.4625</v>
+        <v>226.46</v>
       </c>
       <c r="D776" t="n">
         <v>221.16</v>
@@ -19746,7 +19746,7 @@
         <v>236.22</v>
       </c>
       <c r="C777" t="n">
-        <v>228.3325</v>
+        <v>228.33</v>
       </c>
       <c r="D777" t="n">
         <v>223.07</v>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="n">
-        <v>216.0875</v>
+        <v>216.09</v>
       </c>
       <c r="D780" t="n">
         <v>213.58</v>
@@ -19844,7 +19844,7 @@
       </c>
       <c r="B781" t="inlineStr"/>
       <c r="C781" t="n">
-        <v>204.9975</v>
+        <v>205</v>
       </c>
       <c r="D781" t="n">
         <v>204.67</v>
@@ -19869,7 +19869,7 @@
         <v>259.33</v>
       </c>
       <c r="C782" t="n">
-        <v>234.355</v>
+        <v>234.35</v>
       </c>
       <c r="D782" t="n">
         <v>226.97</v>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="n">
-        <v>216.0275</v>
+        <v>216.03</v>
       </c>
       <c r="D783" t="n">
         <v>216.8</v>
@@ -20000,7 +20000,7 @@
         <v>233.41</v>
       </c>
       <c r="C787" t="n">
-        <v>230.2775</v>
+        <v>230.28</v>
       </c>
       <c r="D787" t="n">
         <v>212.61</v>
@@ -20027,7 +20027,7 @@
         <v>234.47</v>
       </c>
       <c r="C788" t="n">
-        <v>225.5475</v>
+        <v>225.55</v>
       </c>
       <c r="D788" t="n">
         <v>222.32</v>
@@ -20054,7 +20054,7 @@
         <v>225.48</v>
       </c>
       <c r="C789" t="n">
-        <v>227.685</v>
+        <v>227.69</v>
       </c>
       <c r="D789" t="n">
         <v>227.15</v>
@@ -20081,7 +20081,7 @@
         <v>234.06</v>
       </c>
       <c r="C790" t="n">
-        <v>228.3125</v>
+        <v>228.31</v>
       </c>
       <c r="D790" t="n">
         <v>223.25</v>
@@ -20108,7 +20108,7 @@
         <v>250.37</v>
       </c>
       <c r="C791" t="n">
-        <v>234.5175</v>
+        <v>234.52</v>
       </c>
       <c r="D791" t="n">
         <v>216.2</v>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="n">
-        <v>220.3225</v>
+        <v>220.32</v>
       </c>
       <c r="D792" t="n">
         <v>219.24</v>
@@ -20210,7 +20210,7 @@
         <v>263.51</v>
       </c>
       <c r="C795" t="n">
-        <v>215.895</v>
+        <v>215.9</v>
       </c>
       <c r="D795" t="n">
         <v>221.8</v>
@@ -20237,7 +20237,7 @@
         <v>279.16</v>
       </c>
       <c r="C796" t="n">
-        <v>221.6925</v>
+        <v>221.69</v>
       </c>
       <c r="D796" t="n">
         <v>217.8</v>
@@ -20264,7 +20264,7 @@
         <v>228.08</v>
       </c>
       <c r="C797" t="n">
-        <v>228.4175</v>
+        <v>228.42</v>
       </c>
       <c r="D797" t="n">
         <v>222.86</v>
@@ -20291,7 +20291,7 @@
         <v>224.19</v>
       </c>
       <c r="C798" t="n">
-        <v>224.5075</v>
+        <v>224.51</v>
       </c>
       <c r="D798" t="n">
         <v>219.38</v>
@@ -20318,7 +20318,7 @@
         <v>230.63</v>
       </c>
       <c r="C799" t="n">
-        <v>228.855</v>
+        <v>228.85</v>
       </c>
       <c r="D799" t="n">
         <v>223.19</v>
@@ -20345,7 +20345,7 @@
         <v>245.92</v>
       </c>
       <c r="C800" t="n">
-        <v>238.0325</v>
+        <v>238.03</v>
       </c>
       <c r="D800" t="n">
         <v>232.64</v>
@@ -20372,7 +20372,7 @@
         <v>248.61</v>
       </c>
       <c r="C801" t="n">
-        <v>232.0425</v>
+        <v>232.04</v>
       </c>
       <c r="D801" t="n">
         <v>223.89</v>
@@ -20399,7 +20399,7 @@
         <v>236.48</v>
       </c>
       <c r="C802" t="n">
-        <v>229.2425</v>
+        <v>229.24</v>
       </c>
       <c r="D802" t="n">
         <v>221.94</v>
@@ -20426,7 +20426,7 @@
         <v>216.38</v>
       </c>
       <c r="C803" t="n">
-        <v>222.8475</v>
+        <v>222.85</v>
       </c>
       <c r="D803" t="n">
         <v>219.15</v>
@@ -20453,7 +20453,7 @@
         <v>262.03</v>
       </c>
       <c r="C804" t="n">
-        <v>235.055</v>
+        <v>235.06</v>
       </c>
       <c r="D804" t="n">
         <v>229.21</v>
@@ -20480,7 +20480,7 @@
         <v>264.69</v>
       </c>
       <c r="C805" t="n">
-        <v>239.8625</v>
+        <v>239.86</v>
       </c>
       <c r="D805" t="n">
         <v>239.75</v>
@@ -20507,7 +20507,7 @@
         <v>245.47</v>
       </c>
       <c r="C806" t="n">
-        <v>231.8325</v>
+        <v>231.83</v>
       </c>
       <c r="D806" t="n">
         <v>227.12</v>
@@ -20588,7 +20588,7 @@
         <v>229.96</v>
       </c>
       <c r="C809" t="n">
-        <v>226.5325</v>
+        <v>226.53</v>
       </c>
       <c r="D809" t="n">
         <v>223.04</v>
@@ -20597,7 +20597,7 @@
         <v>219.84</v>
       </c>
       <c r="F809" t="n">
-        <v>215.6600000000001</v>
+        <v>215.66</v>
       </c>
       <c r="G809" t="inlineStr">
         <is>
@@ -20615,16 +20615,16 @@
         <v>242.83</v>
       </c>
       <c r="C810" t="n">
-        <v>236.925</v>
+        <v>236.93</v>
       </c>
       <c r="D810" t="n">
-        <v>234.9100000000001</v>
+        <v>234.91</v>
       </c>
       <c r="E810" t="n">
         <v>229.19</v>
       </c>
       <c r="F810" t="n">
-        <v>224.6600000000001</v>
+        <v>224.66</v>
       </c>
       <c r="G810" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>236.47</v>
       </c>
       <c r="C811" t="n">
-        <v>228.7075</v>
+        <v>228.71</v>
       </c>
       <c r="D811" t="n">
         <v>224.58</v>
@@ -20669,13 +20669,13 @@
         <v>228.76</v>
       </c>
       <c r="C812" t="n">
-        <v>231.2325</v>
+        <v>231.23</v>
       </c>
       <c r="D812" t="n">
         <v>230.64</v>
       </c>
       <c r="E812" t="n">
-        <v>232.6600000000001</v>
+        <v>232.66</v>
       </c>
       <c r="F812" t="n">
         <v>220.17</v>
@@ -20696,7 +20696,7 @@
         <v>216.42</v>
       </c>
       <c r="C813" t="n">
-        <v>226.5675</v>
+        <v>226.57</v>
       </c>
       <c r="D813" t="n">
         <v>231.48</v>
@@ -20723,7 +20723,7 @@
         <v>211.98</v>
       </c>
       <c r="C814" t="n">
-        <v>223.915</v>
+        <v>223.91</v>
       </c>
       <c r="D814" t="n">
         <v>225.22</v>
@@ -20777,7 +20777,7 @@
         <v>211.1</v>
       </c>
       <c r="C816" t="n">
-        <v>224.3175</v>
+        <v>224.32</v>
       </c>
       <c r="D816" t="n">
         <v>219.77</v>
@@ -20804,7 +20804,7 @@
         <v>214.1</v>
       </c>
       <c r="C817" t="n">
-        <v>229.695</v>
+        <v>229.69</v>
       </c>
       <c r="D817" t="n">
         <v>230.46</v>
@@ -20910,7 +20910,7 @@
         <v>248</v>
       </c>
       <c r="C821" t="n">
-        <v>233.405</v>
+        <v>233.41</v>
       </c>
       <c r="D821" t="n">
         <v>225.49</v>
@@ -20937,7 +20937,7 @@
         <v>220.26</v>
       </c>
       <c r="C822" t="n">
-        <v>232.925</v>
+        <v>232.93</v>
       </c>
       <c r="D822" t="n">
         <v>225.41</v>
@@ -20983,7 +20983,7 @@
         <v>253.5</v>
       </c>
       <c r="C824" t="n">
-        <v>215.9075</v>
+        <v>215.91</v>
       </c>
       <c r="D824" t="n">
         <v>220.1</v>
@@ -21035,7 +21035,7 @@
         <v>256.73</v>
       </c>
       <c r="C826" t="n">
-        <v>234.5825</v>
+        <v>234.58</v>
       </c>
       <c r="D826" t="n">
         <v>228.5</v>
@@ -21062,7 +21062,7 @@
         <v>259.48</v>
       </c>
       <c r="C827" t="n">
-        <v>238.835</v>
+        <v>238.84</v>
       </c>
       <c r="D827" t="n">
         <v>239.01</v>
@@ -21089,7 +21089,7 @@
         <v>212.3</v>
       </c>
       <c r="C828" t="n">
-        <v>219.0775</v>
+        <v>219.08</v>
       </c>
       <c r="D828" t="n">
         <v>214.53</v>
@@ -21116,7 +21116,7 @@
         <v>232.75</v>
       </c>
       <c r="C829" t="n">
-        <v>234.9825</v>
+        <v>234.98</v>
       </c>
       <c r="D829" t="n">
         <v>233.5</v>
@@ -21143,7 +21143,7 @@
         <v>240.26</v>
       </c>
       <c r="C830" t="n">
-        <v>236.4725</v>
+        <v>236.47</v>
       </c>
       <c r="D830" t="n">
         <v>234.88</v>
@@ -21197,7 +21197,7 @@
         <v>221.89</v>
       </c>
       <c r="C832" t="n">
-        <v>226.0825</v>
+        <v>226.08</v>
       </c>
       <c r="D832" t="n">
         <v>223.51</v>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="B833" t="inlineStr"/>
       <c r="C833" t="n">
-        <v>225.955</v>
+        <v>225.96</v>
       </c>
       <c r="D833" t="n">
         <v>224.25</v>
@@ -21249,7 +21249,7 @@
         <v>210.43</v>
       </c>
       <c r="C834" t="n">
-        <v>222.9575</v>
+        <v>222.96</v>
       </c>
       <c r="D834" t="n">
         <v>219.93</v>
@@ -21276,7 +21276,7 @@
         <v>255.36</v>
       </c>
       <c r="C835" t="n">
-        <v>229.4025</v>
+        <v>229.4</v>
       </c>
       <c r="D835" t="n">
         <v>228.25</v>
@@ -21303,7 +21303,7 @@
         <v>266.99</v>
       </c>
       <c r="C836" t="n">
-        <v>234.935</v>
+        <v>234.94</v>
       </c>
       <c r="D836" t="n">
         <v>229.01</v>
@@ -21357,7 +21357,7 @@
         <v>277.74</v>
       </c>
       <c r="C838" t="n">
-        <v>217.1175</v>
+        <v>217.12</v>
       </c>
       <c r="D838" t="n">
         <v>212.05</v>
@@ -21384,7 +21384,7 @@
         <v>246.9</v>
       </c>
       <c r="C839" t="n">
-        <v>230.385</v>
+        <v>230.38</v>
       </c>
       <c r="D839" t="n">
         <v>223.29</v>
@@ -21438,7 +21438,7 @@
         <v>224.55</v>
       </c>
       <c r="C841" t="n">
-        <v>226.5125</v>
+        <v>226.51</v>
       </c>
       <c r="D841" t="n">
         <v>221.33</v>
@@ -21465,7 +21465,7 @@
         <v>228.59</v>
       </c>
       <c r="C842" t="n">
-        <v>225.8475</v>
+        <v>225.85</v>
       </c>
       <c r="D842" t="n">
         <v>221.51</v>
@@ -21519,7 +21519,7 @@
         <v>251.01</v>
       </c>
       <c r="C844" t="n">
-        <v>233.2175</v>
+        <v>233.22</v>
       </c>
       <c r="D844" t="n">
         <v>227.93</v>
@@ -21573,7 +21573,7 @@
         <v>255.55</v>
       </c>
       <c r="C846" t="n">
-        <v>221.2625</v>
+        <v>221.26</v>
       </c>
       <c r="D846" t="n">
         <v>219.74</v>
@@ -21600,7 +21600,7 @@
         <v>250.15</v>
       </c>
       <c r="C847" t="n">
-        <v>220.875</v>
+        <v>220.88</v>
       </c>
       <c r="D847" t="n">
         <v>219.72</v>
@@ -21627,7 +21627,7 @@
         <v>255.74</v>
       </c>
       <c r="C848" t="n">
-        <v>220.435</v>
+        <v>220.44</v>
       </c>
       <c r="D848" t="n">
         <v>219.26</v>
@@ -21654,7 +21654,7 @@
         <v>249.31</v>
       </c>
       <c r="C849" t="n">
-        <v>222.2325</v>
+        <v>222.23</v>
       </c>
       <c r="D849" t="n">
         <v>219.1</v>
@@ -21681,7 +21681,7 @@
         <v>253.46</v>
       </c>
       <c r="C850" t="n">
-        <v>232.4725</v>
+        <v>232.47</v>
       </c>
       <c r="D850" t="n">
         <v>227.54</v>
@@ -21708,7 +21708,7 @@
         <v>254.1</v>
       </c>
       <c r="C851" t="n">
-        <v>222.885</v>
+        <v>222.88</v>
       </c>
       <c r="D851" t="n">
         <v>219.75</v>
@@ -21735,7 +21735,7 @@
         <v>252.39</v>
       </c>
       <c r="C852" t="n">
-        <v>232.945</v>
+        <v>232.94</v>
       </c>
       <c r="D852" t="n">
         <v>227.42</v>
@@ -21762,7 +21762,7 @@
         <v>233.23</v>
       </c>
       <c r="C853" t="n">
-        <v>228.805</v>
+        <v>228.81</v>
       </c>
       <c r="D853" t="n">
         <v>223.79</v>
@@ -21789,7 +21789,7 @@
         <v>245.42</v>
       </c>
       <c r="C854" t="n">
-        <v>230.1925</v>
+        <v>230.19</v>
       </c>
       <c r="D854" t="n">
         <v>225.47</v>
@@ -21843,7 +21843,7 @@
         <v>239.69</v>
       </c>
       <c r="C856" t="n">
-        <v>228.5725</v>
+        <v>228.57</v>
       </c>
       <c r="D856" t="n">
         <v>223.53</v>
@@ -21870,7 +21870,7 @@
         <v>254.19</v>
       </c>
       <c r="C857" t="n">
-        <v>233.575</v>
+        <v>233.57</v>
       </c>
       <c r="D857" t="n">
         <v>228.44</v>
@@ -21897,7 +21897,7 @@
         <v>262.97</v>
       </c>
       <c r="C858" t="n">
-        <v>225.665</v>
+        <v>225.66</v>
       </c>
       <c r="D858" t="n">
         <v>224.58</v>
@@ -21951,7 +21951,7 @@
         <v>262.88</v>
       </c>
       <c r="C860" t="n">
-        <v>236.4575</v>
+        <v>236.46</v>
       </c>
       <c r="D860" t="n">
         <v>238.79</v>
@@ -21978,7 +21978,7 @@
         <v>233.05</v>
       </c>
       <c r="C861" t="n">
-        <v>224.4775</v>
+        <v>224.48</v>
       </c>
       <c r="D861" t="n">
         <v>228.7</v>
@@ -22005,7 +22005,7 @@
         <v>253.99</v>
       </c>
       <c r="C862" t="n">
-        <v>216.4125</v>
+        <v>216.41</v>
       </c>
       <c r="D862" t="n">
         <v>214.54</v>
@@ -22032,7 +22032,7 @@
         <v>226.73</v>
       </c>
       <c r="C863" t="n">
-        <v>219.385</v>
+        <v>219.38</v>
       </c>
       <c r="D863" t="n">
         <v>218.35</v>
@@ -22059,7 +22059,7 @@
         <v>252.2</v>
       </c>
       <c r="C864" t="n">
-        <v>232.6025</v>
+        <v>232.6</v>
       </c>
       <c r="D864" t="n">
         <v>226.9</v>
@@ -22194,7 +22194,7 @@
         <v>235.06</v>
       </c>
       <c r="C869" t="n">
-        <v>226.955</v>
+        <v>226.96</v>
       </c>
       <c r="D869" t="n">
         <v>224.28</v>
@@ -22221,7 +22221,7 @@
         <v>245.14</v>
       </c>
       <c r="C870" t="n">
-        <v>237.2575</v>
+        <v>237.26</v>
       </c>
       <c r="D870" t="n">
         <v>225.47</v>
@@ -22246,7 +22246,7 @@
         <v>234.62</v>
       </c>
       <c r="C871" t="n">
-        <v>225.6725</v>
+        <v>225.67</v>
       </c>
       <c r="D871" t="n">
         <v>221.39</v>
@@ -22296,7 +22296,7 @@
         <v>261.96</v>
       </c>
       <c r="C873" t="n">
-        <v>233.815</v>
+        <v>233.81</v>
       </c>
       <c r="D873" t="n">
         <v>226.78</v>
@@ -22323,7 +22323,7 @@
         <v>260.63</v>
       </c>
       <c r="C874" t="n">
-        <v>233.7675</v>
+        <v>233.77</v>
       </c>
       <c r="D874" t="n">
         <v>226.64</v>
@@ -22350,7 +22350,7 @@
         <v>221.56</v>
       </c>
       <c r="C875" t="n">
-        <v>222.1825</v>
+        <v>222.18</v>
       </c>
       <c r="D875" t="n">
         <v>219.39</v>
@@ -22404,7 +22404,7 @@
         <v>260.41</v>
       </c>
       <c r="C877" t="n">
-        <v>235.4075</v>
+        <v>235.41</v>
       </c>
       <c r="D877" t="n">
         <v>228.55</v>
@@ -22431,7 +22431,7 @@
         <v>264.6</v>
       </c>
       <c r="C878" t="n">
-        <v>242.0675</v>
+        <v>242.07</v>
       </c>
       <c r="D878" t="n">
         <v>225.98</v>
@@ -22458,7 +22458,7 @@
         <v>253.65</v>
       </c>
       <c r="C879" t="n">
-        <v>233.515</v>
+        <v>233.51</v>
       </c>
       <c r="D879" t="n">
         <v>227.48</v>
@@ -22485,7 +22485,7 @@
         <v>247.04</v>
       </c>
       <c r="C880" t="n">
-        <v>229.975</v>
+        <v>229.97</v>
       </c>
       <c r="D880" t="n">
         <v>224.61</v>
@@ -22512,7 +22512,7 @@
         <v>220.13</v>
       </c>
       <c r="C881" t="n">
-        <v>220.9675</v>
+        <v>220.97</v>
       </c>
       <c r="D881" t="n">
         <v>216.31</v>
@@ -22572,7 +22572,7 @@
         <v>219.53</v>
       </c>
       <c r="E883" t="n">
-        <v>216.4100000000001</v>
+        <v>216.41</v>
       </c>
       <c r="F883" t="n">
         <v>215.95</v>
@@ -22593,7 +22593,7 @@
         <v>235.85</v>
       </c>
       <c r="C884" t="n">
-        <v>228.6275</v>
+        <v>228.63</v>
       </c>
       <c r="D884" t="n">
         <v>221.38</v>
@@ -32197,7 +32197,7 @@
         <v>0.0416</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.281528140988857</v>
+        <v>-0.2815281409888569</v>
       </c>
       <c r="J2" t="n">
         <v>884</v>
@@ -32269,7 +32269,7 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1896457016215325</v>
+        <v>0.1896297175492314</v>
       </c>
       <c r="J3" t="n">
         <v>884</v>
@@ -32278,19 +32278,19 @@
         <v>689</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01953803703877188</v>
+        <v>0.01953488289925032</v>
       </c>
       <c r="M3" t="n">
-        <v>7.332599101165147</v>
+        <v>7.332522901278726</v>
       </c>
       <c r="N3" t="n">
-        <v>103.0042957805049</v>
+        <v>103.0038931411609</v>
       </c>
       <c r="O3" t="n">
-        <v>10.14910320080079</v>
+        <v>10.14908336457835</v>
       </c>
       <c r="P3" t="n">
-        <v>222.4594947283023</v>
+        <v>222.4597282437118</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32350,16 +32350,16 @@
         <v>742</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1651389594296701</v>
+        <v>0.1651389594296699</v>
       </c>
       <c r="M4" t="n">
-        <v>6.124596455433613</v>
+        <v>6.124596455433611</v>
       </c>
       <c r="N4" t="n">
-        <v>77.5171236328445</v>
+        <v>77.51712363284449</v>
       </c>
       <c r="O4" t="n">
-        <v>8.804380934105732</v>
+        <v>8.80438093410573</v>
       </c>
       <c r="P4" t="n">
         <v>211.2746771436604</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-40.94684809646961,173.04964748699607</t>
+          <t>-40.9468480964719,173.04964745729396</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -32746,7 +32746,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-40.946848085783344,173.04978417615456</t>
+          <t>-40.94684808578099,173.04978420585667</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -32853,7 +32853,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-40.94684810553309,173.04952989630087</t>
+          <t>-40.946848105537654,173.04952983689662</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -32960,7 +32960,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-40.94684809449416,173.0496729120112</t>
+          <t>-40.94684809449647,173.0496728823091</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -32997,7 +32997,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-40.9468480948592,173.04966821907618</t>
+          <t>-40.9468480948569,173.0496682487783</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-40.94684808815185,173.0497540582044</t>
+          <t>-40.9468480881542,173.04975402850226</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -33183,7 +33183,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-40.94684808790463,173.04975720662918</t>
+          <t>-40.9468480879023,173.0497572363313</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -33303,7 +33303,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-40.94684809613306,173.04965182350566</t>
+          <t>-40.94684809613076,173.0496518532078</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -33406,7 +33406,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-40.946848101845724,173.0495779246298</t>
+          <t>-40.94684810184344,173.0495779543319</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33443,7 +33443,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-40.94684808901649,173.0497430387177</t>
+          <t>-40.94684808901182,173.04974309812195</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33517,7 +33517,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-40.94684809157386,173.04971036638517</t>
+          <t>-40.94684809156922,173.0497104257894</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -33554,7 +33554,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-40.94684810424012,173.04954676710534</t>
+          <t>-40.94684810423557,173.04954682650958</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-40.94684809518713,173.04966400137505</t>
+          <t>-40.94684809518944,173.04966397167294</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -33665,7 +33665,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-40.946848106385374,173.04951875800566</t>
+          <t>-40.946848106383115,173.04951878770777</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -33760,7 +33760,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-40.946848090747224,173.04972094034005</t>
+          <t>-40.94684809074257,173.0497209997443</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -33872,7 +33872,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-40.94684808848758,173.04974978109905</t>
+          <t>-40.946848088489915,173.04974975139694</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -33930,7 +33930,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-40.94684809170381,173.04970870306641</t>
+          <t>-40.94684809170845,173.04970864366217</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -34033,7 +34033,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-40.94684810082286,173.04959120147765</t>
+          <t>-40.94684810081828,173.0495912608819</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -34066,7 +34066,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-40.94684806535496,173.05003991141143</t>
+          <t>-40.94684806535737,173.0500398817093</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -34177,7 +34177,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-40.946848091752535,173.04970807932187</t>
+          <t>-40.946848091754866,173.04970804961977</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -34214,7 +34214,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-40.946848092084224,173.04970383191866</t>
+          <t>-40.94684809207959,173.04970389132288</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -34351,7 +34351,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-40.94684809224421,173.04970178247234</t>
+          <t>-40.94684809224654,173.0497017527702</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -34388,7 +34388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-40.94684808585354,173.04978328509094</t>
+          <t>-40.94684808585587,173.04978325538883</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -34454,7 +34454,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-40.94684809113975,173.0497159206817</t>
+          <t>-40.94684809114209,173.04971589097957</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -34491,7 +34491,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-40.94684808887905,173.0497447911428</t>
+          <t>-40.94684808888138,173.04974476144068</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -34602,7 +34602,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-40.94684809696258,173.0496411307423</t>
+          <t>-40.94684809696029,173.0496411604444</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -34639,7 +34639,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-40.94684809143461,173.04971214851238</t>
+          <t>-40.94684809143925,173.04971208910817</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -34676,7 +34676,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-40.94684809372185,173.04968283251947</t>
+          <t>-40.94684809371953,173.04968286222157</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -34713,7 +34713,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-40.946848099748024,173.0496051317722</t>
+          <t>-40.946848099745715,173.04960516147432</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -34750,7 +34750,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-40.946848093189516,173.04968966400716</t>
+          <t>-40.94684809319184,173.04968963430505</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -34820,7 +34820,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-40.946848083702676,173.04981055163753</t>
+          <t>-40.94684808370032,173.04981058133967</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -34890,7 +34890,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-40.94684808985446,173.04973234595434</t>
+          <t>-40.94684808984981,173.04973240535858</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-40.94684809747363,173.0496345368715</t>
+          <t>-40.946848097475915,173.0496345071694</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -34989,7 +34989,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-40.946848084605506,173.04979911632114</t>
+          <t>-40.94684808460083,173.04979917572538</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -35022,7 +35022,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-40.946848086830755,173.0497708696046</t>
+          <t>-40.94684808682842,173.0497708993067</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -35059,7 +35059,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-40.94684809756567,173.0496333487867</t>
+          <t>-40.94684809756797,173.04963331908456</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -35096,7 +35096,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-40.946848091019,173.04971746519195</t>
+          <t>-40.946848091021316,173.04971743548984</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -35162,7 +35162,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-40.94684809941996,173.04960937917542</t>
+          <t>-40.94684809941537,173.04960943857967</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -35261,7 +35261,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-40.946848091443904,173.04971202970393</t>
+          <t>-40.94684809144852,173.04971197029968</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -35298,7 +35298,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-40.94684810354936,173.04955576684787</t>
+          <t>-40.94684810355165,173.04955573714577</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -35372,7 +35372,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-40.94684810761077,173.04950271886057</t>
+          <t>-40.94684810760852,173.0495027485627</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -35434,7 +35434,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-40.94684809488923,173.04966783294861</t>
+          <t>-40.946848094884615,173.04966789235283</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -35529,7 +35529,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-40.94684809523099,173.04966343703478</t>
+          <t>-40.94684809523561,173.04966337763054</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -35566,7 +35566,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-40.94684810912356,173.049482877844</t>
+          <t>-40.9468481091213,173.04948290754615</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -35603,7 +35603,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-40.94684810202405,173.04957560786437</t>
+          <t>-40.946848102026344,173.04957557816226</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -35640,7 +35640,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-40.946848085188805,173.04979172049315</t>
+          <t>-40.94684808519115,173.04979169079104</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -35669,7 +35669,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-40.94684809866919,173.04961909176885</t>
+          <t>-40.94684809867149,173.0496190620667</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -35702,7 +35702,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-40.9468481008389,173.04959099356282</t>
+          <t>-40.9468481008366,173.04959102326495</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -35739,7 +35739,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-40.94684808572017,173.04978497811183</t>
+          <t>-40.946848085724845,173.04978491870756</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -35838,7 +35838,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-40.946848093740364,173.0496825949025</t>
+          <t>-40.94684809373804,173.04968262460463</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -35896,7 +35896,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-40.946848092193214,173.049702435919</t>
+          <t>-40.9468480921909,173.04970246562112</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -35929,7 +35929,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-40.94684809840956,173.04962244810847</t>
+          <t>-40.94684809840496,173.04962250751268</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -35958,7 +35958,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-40.94684809956451,173.04960750794183</t>
+          <t>-40.94684809956221,173.04960753764396</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -36020,7 +36020,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-40.946848091286036,173.04971404944808</t>
+          <t>-40.94684809129068,173.04971399004387</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-40.94684809333306,173.0496878224757</t>
+          <t>-40.946848093330736,173.04968785217784</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -36285,7 +36285,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-40.94684809899531,173.04961487406771</t>
+          <t>-40.94684809899302,173.04961490376985</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -36376,7 +36376,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-40.94684809755647,173.04963346759519</t>
+          <t>-40.946848097558764,173.04963343789305</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-40.94684810009655,173.04960061704986</t>
+          <t>-40.94684810009426,173.049600646752</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -36450,7 +36450,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-40.946848098609465,173.04961986402398</t>
+          <t>-40.94684809860716,173.0496198937261</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -36516,7 +36516,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-40.946848105294265,173.0495330150235</t>
+          <t>-40.94684810529199,173.04953304472565</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -36595,7 +36595,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-40.946848114588846,173.0494108204995</t>
+          <t>-40.946848114591106,173.04941079079737</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -36624,7 +36624,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-40.94684809845783,173.04962182436392</t>
+          <t>-40.94684809846012,173.04962179466182</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -36690,7 +36690,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-40.946848116640716,173.04938361335704</t>
+          <t>-40.94684811664295,173.0493835836549</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -36727,7 +36727,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-40.94684809972967,173.04960536938916</t>
+          <t>-40.94684809972738,173.0496053990913</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -36764,7 +36764,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-40.94684811137505,173.04945326482982</t>
+          <t>-40.94684811137956,173.04945320542555</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -36834,7 +36834,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-40.94684808106981,173.04984381801245</t>
+          <t>-40.94684808106746,173.04984384771456</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -36908,7 +36908,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-40.946848108458184,173.04949161026747</t>
+          <t>-40.94684810846045,173.04949158056533</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -36937,7 +36937,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-40.94684810086637,173.04959063713738</t>
+          <t>-40.94684810086408,173.0495906668395</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -37053,7 +37053,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-40.94684810241713,173.04957049909967</t>
+          <t>-40.9468481024194,173.04957046939754</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -37090,7 +37090,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-40.94684810848988,173.0494911944378</t>
+          <t>-40.946848108487615,173.0494912241399</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -37119,7 +37119,7 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-40.946848105087206,173.0495357179165</t>
+          <t>-40.94684810509175,173.04953565851227</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -37193,7 +37193,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-40.94684810995096,173.04947200686792</t>
+          <t>-40.94684810995323,173.04947197716578</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -37259,7 +37259,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-40.94684810430164,173.04954596514807</t>
+          <t>-40.94684810429936,173.0495459948502</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -37296,7 +37296,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-40.946848097231964,173.04963765559415</t>
+          <t>-40.94684809722737,173.0496377149984</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -37407,7 +37407,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-40.94684810225261,173.04957263765235</t>
+          <t>-40.94684810225489,173.0495726079502</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -37444,7 +37444,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-40.946848100898436,173.04959022130768</t>
+          <t>-40.94684810090072,173.04959019160557</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -37481,7 +37481,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-40.94684810084347,173.04959093415857</t>
+          <t>-40.94684810084576,173.04959090445647</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -37539,7 +37539,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-40.94684810392105,173.0495509254022</t>
+          <t>-40.9468481039256,173.04955086599796</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -37572,7 +37572,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-40.946848096953374,173.04964124955075</t>
+          <t>-40.946848096951086,173.04964127925285</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -37601,7 +37601,7 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-40.94684810743164,173.04950506532808</t>
+          <t>-40.946848107427115,173.04950512473232</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -37630,7 +37630,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-40.94684809515711,173.04966438750262</t>
+          <t>-40.94684809515248,173.04966444690686</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -37696,7 +37696,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-40.946848091750205,173.049708109024</t>
+          <t>-40.946848091754866,173.04970804961977</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-40.9468480938352,173.04968137711555</t>
+          <t>-40.94684809383984,173.0496813177113</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -37766,7 +37766,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-40.94684809659864,173.0496458236773</t>
+          <t>-40.94684809660094,173.0496457939752</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -37795,7 +37795,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-40.946848096838224,173.04964273465677</t>
+          <t>-40.946848096840526,173.04964270495466</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -37886,7 +37886,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-40.94684812010924,173.0493374265595</t>
+          <t>-40.94684812011368,173.04933736715526</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -37923,7 +37923,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-40.94684811176946,173.04944806695872</t>
+          <t>-40.94684811176721,173.04944809666083</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -37960,7 +37960,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-40.94684809571793,173.04965716988733</t>
+          <t>-40.94684809571563,173.04965719958946</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -38034,7 +38034,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-40.946848093782,173.04968206026433</t>
+          <t>-40.94684809378431,173.04968203056222</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -38108,7 +38108,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-40.94684809611462,173.04965206112263</t>
+          <t>-40.94684809611232,173.04965209082474</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -38133,7 +38133,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-40.94684810172224,173.0495795285443</t>
+          <t>-40.94684810172452,173.04957949884218</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -38166,7 +38166,7 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-40.94684809055899,173.04972334621183</t>
+          <t>-40.946848090556664,173.04972337591394</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -38203,7 +38203,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-40.94684810192803,173.04957685535345</t>
+          <t>-40.94684810192575,173.0495768850556</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -38269,7 +38269,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-40.94684810309989,173.0495616181656</t>
+          <t>-40.94684810309532,173.04956167756987</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-40.94684809837509,173.04962289364028</t>
+          <t>-40.94684809837739,173.04962286393814</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -38368,7 +38368,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-40.94684809613768,173.0496517641014</t>
+          <t>-40.94684809613999,173.04965173439928</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -38405,7 +38405,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-40.946848101118206,173.04958736990412</t>
+          <t>-40.946848101120494,173.049587340202</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-40.94684809272399,173.04969563413337</t>
+          <t>-40.94684809271934,173.04969569353764</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -38475,7 +38475,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-40.94684809948191,173.04960857721818</t>
+          <t>-40.94684809947961,173.0496086069203</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -38541,7 +38541,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-40.946848091248896,173.04971452468203</t>
+          <t>-40.94684809124424,173.04971458408627</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -38574,7 +38574,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-40.946848112735346,173.049435324749</t>
+          <t>-40.94684811273085,173.0494353841532</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -38599,7 +38599,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-40.94684810583549,173.04952594591884</t>
+          <t>-40.94684810583776,173.0495259162167</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -38645,7 +38645,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-40.946848094843034,173.04966842699102</t>
+          <t>-40.94684809483841,173.04966848639526</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -38678,7 +38678,7 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-40.946848095570274,173.04965907082305</t>
+          <t>-40.94684809556796,173.04965910052516</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -38757,7 +38757,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-40.946848091218705,173.0497149108096</t>
+          <t>-40.946848091216374,173.0497149405117</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -38786,7 +38786,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-40.94684808558913,173.04978664143056</t>
+          <t>-40.94684808558445,173.04978670083477</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -38819,7 +38819,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-40.946848090981845,173.0497179404259</t>
+          <t>-40.94684809098416,173.04971791072376</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -38844,7 +38844,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-40.94684809013357,173.04972878169988</t>
+          <t>-40.946848090138225,173.0497287222956</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-40.94684809441558,173.0496739218833</t>
+          <t>-40.94684809441327,173.04967395158542</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -38910,7 +38910,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-40.94684809335621,173.04968752545452</t>
+          <t>-40.94684809335852,173.04968749575238</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -38939,7 +38939,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-40.9468480957364,173.04965693227038</t>
+          <t>-40.946848095734076,173.0496569619725</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-40.94684809382826,173.04968146622193</t>
+          <t>-40.946848093830575,173.0496814365198</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -39038,7 +39038,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-40.946848098898876,173.0496161215568</t>
+          <t>-40.946848098901164,173.0496160918547</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -39071,7 +39071,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-40.946848087549974,173.04976172135147</t>
+          <t>-40.94684808754763,173.0497617510536</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -39100,7 +39100,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-40.94684810176569,173.04957896420402</t>
+          <t>-40.946848101761105,173.04957902360826</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -39137,7 +39137,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-40.94684811196772,173.04944545317213</t>
+          <t>-40.946848111965465,173.04944548287423</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -39244,7 +39244,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-40.94684811099619,173.04945825478606</t>
+          <t>-40.946848111000705,173.04945819538182</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -39290,7 +39290,7 @@
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-40.94684808614357,173.049779602028</t>
+          <t>-40.9468480861459,173.04977957232586</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -39348,7 +39348,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-40.9468481060355,173.04952333213222</t>
+          <t>-40.946848106037784,173.04952330243012</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -39385,7 +39385,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-40.94684810293326,173.0495637864204</t>
+          <t>-40.946848102930986,173.04956381612251</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -39476,7 +39476,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-40.94684810108845,173.04958775603168</t>
+          <t>-40.946848101093025,173.04958769662744</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -39600,7 +39600,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-40.94684808556337,173.04978696815385</t>
+          <t>-40.94684808556572,173.04978693845175</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -39658,7 +39658,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-40.94684809519173,173.04966394197083</t>
+          <t>-40.94684809518944,173.04966397167294</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -39728,7 +39728,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-40.946848103446726,173.0495571034433</t>
+          <t>-40.946848103442164,173.04955716284752</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -39820,7 +39820,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-40.94684811919873,173.04934957472685</t>
+          <t>-40.9468481191965,173.04934960442895</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -39853,7 +39853,7 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-40.94684810402362,173.0495495888068</t>
+          <t>-40.946848104025904,173.04954955910466</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -39911,7 +39911,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-40.946848107921305,173.04949864967006</t>
+          <t>-40.94684810792584,173.0494985902658</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -39969,7 +39969,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-40.946848101317315,173.04958478581963</t>
+          <t>-40.9468481013219,173.0495847264154</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -40015,7 +40015,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-40.94684809894021,173.04961558691863</t>
+          <t>-40.94684809893791,173.04961561662074</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -40052,7 +40052,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-40.9468481130525,173.04943113674997</t>
+          <t>-40.94684811305475,173.04943110704787</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -40139,7 +40139,7 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-40.946848076943844,173.04989570761686</t>
+          <t>-40.946848076939105,173.04989576702107</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -40160,7 +40160,7 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-40.94684808446488,173.04980089844838</t>
+          <t>-40.946848084469565,173.04980083904414</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
@@ -40193,7 +40193,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-40.94684810512588,173.04953521298043</t>
+          <t>-40.94684810512818,173.04953518327832</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
@@ -40214,7 +40214,7 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-40.946848126970984,173.04924532028343</t>
+          <t>-40.94684812697318,173.04924529058133</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
@@ -40239,7 +40239,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-40.946848107515564,173.04950396634962</t>
+          <t>-40.946848107517816,173.04950393664748</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -40297,7 +40297,7 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-40.94684809035444,173.04972595999843</t>
+          <t>-40.94684809035212,173.04972598970053</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -40334,7 +40334,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-40.946848102362296,173.04957121195054</t>
+          <t>-40.94684810236458,173.04957118224843</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -40408,7 +40408,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-40.94684809578484,173.04965630852584</t>
+          <t>-40.946848095780226,173.04965636793008</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -40470,7 +40470,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-40.94684809605006,173.049652892782</t>
+          <t>-40.94684809604775,173.0496529224841</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -40532,7 +40532,7 @@
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-40.946848115823876,173.04939445463106</t>
+          <t>-40.9468481158194,173.0493945140353</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -40598,7 +40598,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-40.9468481076584,173.04950209511603</t>
+          <t>-40.94684810765386,173.04950215452027</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -40635,7 +40635,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-40.94684809636819,173.04964879388936</t>
+          <t>-40.9468480963705,173.04964876418725</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -40660,7 +40660,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-40.946848091302286,173.04971384153325</t>
+          <t>-40.94684809129997,173.04971387123538</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -40685,7 +40685,7 @@
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-40.94684808361116,173.04981171002024</t>
+          <t>-40.94684808361583,173.049811650616</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -40772,7 +40772,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-40.94684807039696,173.04997744785223</t>
+          <t>-40.94684807039219,173.04997750725647</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
@@ -40797,7 +40797,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-40.946848093300645,173.04968823830538</t>
+          <t>-40.94684809330296,173.04968820860327</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
@@ -40822,7 +40822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-40.94684809228827,173.04970121813204</t>
+          <t>-40.94684809228364,173.0497012775363</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -40855,7 +40855,7 @@
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-40.946848092436625,173.04969931719634</t>
+          <t>-40.94684809243199,173.04969937660059</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -40921,7 +40921,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-40.9468480881332,173.04975429582134</t>
+          <t>-40.94684808813553,173.04975426611924</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -40954,7 +40954,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-40.946848103994,173.04954997493437</t>
+          <t>-40.94684810398943,173.04955003433858</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -41012,7 +41012,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-40.94684811716606,173.0493766333587</t>
+          <t>-40.94684811716161,173.04937669276296</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -41049,7 +41049,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-40.94684810655799,173.0495165006445</t>
+          <t>-40.9468481065557,173.0495165303466</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -41260,7 +41260,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-40.94684809308764,173.04969097090046</t>
+          <t>-40.94684809308995,173.04969094119835</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
@@ -41485,7 +41485,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-40.946848094447944,173.04967350605364</t>
+          <t>-40.94684809445024,173.0496734763515</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -41568,7 +41568,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-40.94684808921443,173.04974051403744</t>
+          <t>-40.946848089216765,173.04974048433533</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -41663,7 +41663,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-40.946848079943216,173.049858015626</t>
+          <t>-40.946848079945575,173.0498579859239</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
@@ -41688,7 +41688,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-40.94684809640046,173.04964837805966</t>
+          <t>-40.94684809639816,173.0496484077618</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -41750,7 +41750,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-40.946848091947395,173.04970558434377</t>
+          <t>-40.946848091949704,173.04970555464163</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
@@ -41775,7 +41775,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-40.946848096326704,173.04964932852752</t>
+          <t>-40.946848096324395,173.04964935822966</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -41812,7 +41812,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-40.946848098094655,173.04962651729898</t>
+          <t>-40.94684809809237,173.0496265470011</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -41878,7 +41878,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-40.94684806056241,173.05009889982247</t>
+          <t>-40.94684806055999,173.0500989295246</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -41907,7 +41907,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-40.94684809848081,173.04962152734274</t>
+          <t>-40.9468480984785,173.04962155704484</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -41944,7 +41944,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-40.946848089028116,173.0497428902071</t>
+          <t>-40.94684808903046,173.04974286050498</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -42002,7 +42002,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-40.946848094027175,173.04967891183955</t>
+          <t>-40.946848094024865,173.04967894154169</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -42060,7 +42060,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-40.946848094600455,173.04967154571366</t>
+          <t>-40.94684809459815,173.0496715754158</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -42163,7 +42163,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-40.94684809658943,173.0496459424858</t>
+          <t>-40.94684809659173,173.04964591278366</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -42200,7 +42200,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-40.946848077973385,173.04988278719446</t>
+          <t>-40.94684807797102,173.04988281689657</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -42233,7 +42233,7 @@
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-40.9468480941243,173.0496776643505</t>
+          <t>-40.9468480941266,173.0496776346484</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -42270,7 +42270,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-40.946848042255894,173.0503208934698</t>
+          <t>-40.94684804225838,173.05032086376767</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -42336,7 +42336,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-40.94684805266428,173.05019531290515</t>
+          <t>-40.94684805266674,173.050195283203</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -42373,7 +42373,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-40.946848085900314,173.04978269104853</t>
+          <t>-40.94684808590265,173.0497826613464</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -42398,7 +42398,7 @@
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-40.94684809146245,173.04971179208695</t>
+          <t>-40.946848091467096,173.0497117326827</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -42435,7 +42435,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-40.946848088860435,173.0497450287598</t>
+          <t>-40.946848088862744,173.04974499905765</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
@@ -42460,7 +42460,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-40.94684808576462,173.04978441377153</t>
+          <t>-40.94684808576229,173.04978444347364</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
@@ -42485,7 +42485,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-40.946848088613436,173.04974817718454</t>
+          <t>-40.946848088611105,173.04974820688665</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -42518,7 +42518,7 @@
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-40.946848071170756,173.0499678243652</t>
+          <t>-40.94684807116598,173.04996788376945</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -42551,7 +42551,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-40.946848084945245,173.04979480951368</t>
+          <t>-40.94684808494758,173.04979477981155</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -42617,7 +42617,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-40.94684809013357,173.04972878169988</t>
+          <t>-40.946848090138225,173.0497287222956</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -42679,7 +42679,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-40.94684809264057,173.04969670340972</t>
+          <t>-40.946848092635925,173.04969676281397</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -42708,7 +42708,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-40.946848097627786,173.04963254682943</t>
+          <t>-40.946848097623196,173.0496326062337</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -42745,7 +42745,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-40.94684809241808,173.0496995548133</t>
+          <t>-40.94684809242272,173.04969949540904</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -42782,7 +42782,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-40.9468480863166,173.04977740407108</t>
+          <t>-40.946848086314255,173.04977743377322</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -42852,7 +42852,7 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-40.94684808833606,173.0497517117369</t>
+          <t>-40.9468480883314,173.0497517711411</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -42889,7 +42889,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-40.94684807667142,173.0498991233607</t>
+          <t>-40.946848076673795,173.04989909365855</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -42918,7 +42918,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-40.946848078762905,173.04987286668623</t>
+          <t>-40.946848078765264,173.04987283698412</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -43009,7 +43009,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-40.94684808853885,173.0497491276524</t>
+          <t>-40.94684808853653,173.0497491573545</t>
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
@@ -43121,7 +43121,7 @@
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-40.94684808613188,173.04977975053862</t>
+          <t>-40.946848086136555,173.04977969113438</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -43183,7 +43183,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-40.94684808975907,173.04973356374126</t>
+          <t>-40.94684808975675,173.04973359344336</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
@@ -43258,7 +43258,7 @@
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-40.94684807318266,173.0499427557756</t>
+          <t>-40.94684807318742,173.04994269637135</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -43353,7 +43353,7 @@
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr">
         <is>
-          <t>-40.94684808992193,173.04973148459283</t>
+          <t>-40.94684808992425,173.04973145489072</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -43415,7 +43415,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-40.94684808937041,173.04973852399536</t>
+          <t>-40.946848089375074,173.04973846459114</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
@@ -43440,7 +43440,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-40.94684810628998,173.04952000549474</t>
+          <t>-40.94684810629226,173.0495199757926</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -43473,7 +43473,7 @@
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-40.94684809427689,173.04967570401055</t>
+          <t>-40.94684809427458,173.04967573371266</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -43589,7 +43589,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-40.94684810068546,173.0495929836049</t>
+          <t>-40.94684810069004,173.04959292420065</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -43626,7 +43626,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-40.946848092473715,173.04969884196242</t>
+          <t>-40.94684809247835,173.04969878255818</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -43663,7 +43663,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-40.94684808242035,173.0498267689953</t>
+          <t>-40.94684808242272,173.04982673929317</t>
         </is>
       </c>
       <c r="D351" t="inlineStr"/>
@@ -43763,7 +43763,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>-40.94684808992193,173.04973148459283</t>
+          <t>-40.94684808992425,173.04973145489072</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -43800,7 +43800,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-40.94684808697326,173.04976905777522</t>
+          <t>-40.94684808696858,173.04976911717947</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -43932,7 +43932,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-40.94684809532334,173.04966224894997</t>
+          <t>-40.946848095318714,173.04966230835421</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -44027,7 +44027,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-40.94684809038467,173.04972557387086</t>
+          <t>-40.94684809038932,173.04972551446662</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -44064,7 +44064,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-40.94684809421678,173.04967647626566</t>
+          <t>-40.946848094219085,173.04967644656355</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -44101,7 +44101,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-40.94684809329602,173.04968829770962</t>
+          <t>-40.9468480932937,173.04968832741176</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -44130,7 +44130,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-40.946848101740535,173.04957929092734</t>
+          <t>-40.94684810174283,173.0495792612252</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -44167,7 +44167,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>-40.94684810710727,173.04950931273135</t>
+          <t>-40.946848107109545,173.0495092830292</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -44196,7 +44196,7 @@
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr">
         <is>
-          <t>-40.94684810197375,173.04957626131105</t>
+          <t>-40.94684810197148,173.04957629101315</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -44258,7 +44258,7 @@
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-40.94684810465696,173.0495413316173</t>
+          <t>-40.94684810465469,173.0495413613194</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -44324,7 +44324,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-40.94684810183658,173.04957804343826</t>
+          <t>-40.94684810183429,173.0495780731404</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -44464,7 +44464,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-40.94684810171996,173.04957955824642</t>
+          <t>-40.94684810172452,173.04957949884218</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -44501,7 +44501,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-40.94684810426974,173.04954638097777</t>
+          <t>-40.94684810427203,173.04954635127567</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -44534,7 +44534,7 @@
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr">
         <is>
-          <t>-40.9468481026958,173.04956687544095</t>
+          <t>-40.94684810269352,173.04956690514308</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -44571,7 +44571,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-40.94684810699835,173.04951073843313</t>
+          <t>-40.94684810700063,173.049510708731</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -44604,7 +44604,7 @@
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-40.94684810147291,173.04958276607545</t>
+          <t>-40.94684810146833,173.0495828254797</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -44641,7 +44641,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-40.946848107794395,173.0495003129888</t>
+          <t>-40.94684810778987,173.04950037239303</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -44674,7 +44674,7 @@
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr">
         <is>
-          <t>-40.946848112328006,173.0494407008328</t>
+          <t>-40.94684811232575,173.04944073053494</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -44720,7 +44720,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>-40.946848092995005,173.0496921589853</t>
+          <t>-40.94684809299733,173.04969212928316</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -44757,7 +44757,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-40.94684809524253,173.04966328852416</t>
+          <t>-40.94684809524484,173.04966325882205</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -44794,7 +44794,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-40.94684811177848,173.04944794815023</t>
+          <t>-40.94684811177623,173.04944797785234</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -44827,7 +44827,7 @@
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr">
         <is>
-          <t>-40.946848098829975,173.0496170126204</t>
+          <t>-40.94684809882768,173.04961704232252</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -44864,7 +44864,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>-40.9468481000828,173.0496007952626</t>
+          <t>-40.9468481000851,173.04960076556048</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -44901,7 +44901,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>-40.94684810189603,173.04957727118313</t>
+          <t>-40.946848101898304,173.04957724148102</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -44934,7 +44934,7 @@
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-40.94684810537162,173.04953200515143</t>
+          <t>-40.94684810537389,173.0495319754493</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -44992,7 +44992,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-40.946848091481044,173.04971155446998</t>
+          <t>-40.94684809147639,173.04971161387422</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -45120,7 +45120,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>-40.94684809377275,173.0496821790728</t>
+          <t>-40.94684809377505,173.04968214937068</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -45157,7 +45157,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-40.94684809317795,173.04968981251778</t>
+          <t>-40.94684809318257,173.04968975311354</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -45186,7 +45186,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>-40.946848101282995,173.04958523135144</t>
+          <t>-40.94684810128528,173.0495852016493</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -45277,7 +45277,7 @@
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr">
         <is>
-          <t>-40.94684809183141,173.0497070694498</t>
+          <t>-40.94684809182909,173.0497070991519</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -45314,7 +45314,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>-40.94684813156505,173.04918309434063</t>
+          <t>-40.94684813156942,173.04918303493642</t>
         </is>
       </c>
       <c r="D402" t="inlineStr"/>
@@ -45339,7 +45339,7 @@
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="inlineStr">
         <is>
-          <t>-40.946848102558754,173.0495686575682</t>
+          <t>-40.94684810255648,173.0495686872703</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -45372,7 +45372,7 @@
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr">
         <is>
-          <t>-40.94684809643734,173.04964790282574</t>
+          <t>-40.946848096435026,173.04964793252788</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -45409,7 +45409,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-40.946848105307915,173.0495328368108</t>
+          <t>-40.94684810531018,173.04953280710868</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -45483,7 +45483,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>-40.94684810276201,173.04956601407946</t>
+          <t>-40.94684810275745,173.0495660734837</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -45520,7 +45520,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>-40.94684809321498,173.04968933728384</t>
+          <t>-40.946848093210356,173.04968939668808</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -45594,7 +45594,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>-40.9468481121704,173.04944277998123</t>
+          <t>-40.946848112172646,173.04944275027916</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>-40.94684809757257,173.04963325968032</t>
+          <t>-40.94684809756797,173.04963331908456</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -45714,7 +45714,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>-40.94684812479055,173.04927469568074</t>
+          <t>-40.94684812479497,173.0492746362765</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -45780,7 +45780,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>-40.946848109182376,173.04948210558888</t>
+          <t>-40.946848109184636,173.04948207588677</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -45817,7 +45817,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>-40.94684812167569,173.04931648656446</t>
+          <t>-40.94684812167789,173.04931645686236</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -45912,7 +45912,7 @@
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
-          <t>-40.94684811187761,173.0494466412569</t>
+          <t>-40.946848111875354,173.04944667095904</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -46271,7 +46271,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>-40.94684811325485,173.04942846355914</t>
+          <t>-40.9468481132526,173.04942849326127</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -46374,7 +46374,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>-40.946848106712366,173.0495144809003</t>
+          <t>-40.94684810671011,173.04951451060242</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>-40.946848109532866,173.0494775017602</t>
+          <t>-40.94684810953739,173.04947744235596</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -46527,7 +46527,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-40.94684810669421,173.04951471851726</t>
+          <t>-40.94684810669193,173.0495147482194</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -46564,7 +46564,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>-40.94684809719514,173.0496381308281</t>
+          <t>-40.946848097190525,173.04963819023232</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -46746,7 +46746,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-40.94684808764565,173.04976050356456</t>
+          <t>-40.94684808764098,173.04976056296877</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -46804,7 +46804,7 @@
       <c r="B448" t="inlineStr"/>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-40.94684807416993,173.04993042939563</t>
+          <t>-40.946848074167555,173.04993045909777</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -46870,7 +46870,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-40.946848094286146,173.04967558520204</t>
+          <t>-40.946848094283816,173.04967561490417</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -46907,7 +46907,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>-40.94684810178169,173.04957875628918</t>
+          <t>-40.94684810177941,173.0495787859913</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -47081,7 +47081,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-40.946848095334865,173.04966210043935</t>
+          <t>-40.946848095337174,173.0496620707372</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -47118,7 +47118,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-40.946848083651055,173.04981120508415</t>
+          <t>-40.9468480836534,173.04981117538205</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-40.94684809708233,173.049639586232</t>
+          <t>-40.94684809708002,173.04963961593413</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
@@ -47242,7 +47242,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>-40.94684809697409,173.04964098223167</t>
+          <t>-40.9468480969695,173.0496410416359</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -47337,7 +47337,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>-40.94684808667421,173.04977285964665</t>
+          <t>-40.94684808666954,173.0497729190509</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -47473,7 +47473,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-40.94684809398555,173.0496794464777</t>
+          <t>-40.94684809398786,173.0496794167756</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -47510,7 +47510,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>-40.94684809050787,173.04972399965845</t>
+          <t>-40.94684809051019,173.04972396995635</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -47547,7 +47547,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>-40.94684809113744,173.0497159503838</t>
+          <t>-40.946848091132786,173.04971600978806</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -47667,7 +47667,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>-40.94684808767366,173.0497601471391</t>
+          <t>-40.94684808766899,173.04976020654334</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -47791,7 +47791,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>-40.94684808982654,173.04973270237977</t>
+          <t>-40.94684808982189,173.04973276178399</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -47828,7 +47828,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>-40.94684808628152,173.0497778496029</t>
+          <t>-40.946848086286195,173.04977779019868</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -47865,7 +47865,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>-40.94684809365012,173.0496837532852</t>
+          <t>-40.94684809364549,173.04968381268944</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -47902,7 +47902,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>-40.9468480810651,173.0498438774167</t>
+          <t>-40.94684808106746,173.04984384771456</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -47956,7 +47956,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>-40.94684808924936,173.04974006850566</t>
+          <t>-40.9468480892447,173.0497401279099</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -48175,7 +48175,7 @@
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="inlineStr">
         <is>
-          <t>-40.94684805470614,173.05017048193255</t>
+          <t>-40.94684805470858,173.05017045223042</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -48204,7 +48204,7 @@
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr">
         <is>
-          <t>-40.94684805238055,173.0501987583511</t>
+          <t>-40.946848052383,173.05019872864895</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -48241,7 +48241,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>-40.94684808577866,173.04978423555877</t>
+          <t>-40.94684808578099,173.04978420585667</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -48278,7 +48278,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>-40.94684808768299,173.0497600283306</t>
+          <t>-40.94684808768766,173.04975996892637</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -48315,7 +48315,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>-40.94684808326141,173.04981613563615</t>
+          <t>-40.946848083259056,173.04981616533829</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -48352,7 +48352,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>-40.94684809282361,173.0496943569422</t>
+          <t>-40.94684809282127,173.04969438664435</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -48426,7 +48426,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>-40.94684809136729,173.04971300987387</t>
+          <t>-40.94684809136496,173.049713039576</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -48492,7 +48492,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>-40.94684807320408,173.0499424884565</t>
+          <t>-40.94684807320646,173.04994245875437</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -48529,7 +48529,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>-40.94684807145476,173.0499642898129</t>
+          <t>-40.946848071452365,173.04996431951503</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -48566,7 +48566,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>-40.94684809160172,173.0497100099597</t>
+          <t>-40.946848091597076,173.04971006936395</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -48624,7 +48624,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>-40.94684808173127,173.0498354717166</t>
+          <t>-40.94684808173598,173.04983541231235</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -48661,7 +48661,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>-40.94684807534816,173.0499156971439</t>
+          <t>-40.94684807534578,173.04991572684602</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -48694,7 +48694,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>-40.946848071993806,173.04995757713368</t>
+          <t>-40.9468480719962,173.04995754743155</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -48731,7 +48731,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>-40.9468480940688,173.0496783772014</t>
+          <t>-40.946848094071115,173.04967834749925</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -48768,7 +48768,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>-40.94684809726189,173.04963726946661</t>
+          <t>-40.946848097264194,173.04963723976448</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -48838,7 +48838,7 @@
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr">
         <is>
-          <t>-40.94684808496398,173.0497945718967</t>
+          <t>-40.946848084966334,173.0497945421946</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -48875,7 +48875,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>-40.94684809011496,173.04972901931683</t>
+          <t>-40.94684809011031,173.04972907872107</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -48912,7 +48912,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>-40.946848095196366,173.0496638825666</t>
+          <t>-40.94684809519867,173.04966385286446</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -49172,7 +49172,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>-40.946848100202004,173.04959925075232</t>
+          <t>-40.946848100204285,173.04959922105022</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -49242,7 +49242,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>-40.94684809640046,173.04964837805966</t>
+          <t>-40.94684809639816,173.0496484077618</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -49279,7 +49279,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>-40.94684809057991,173.04972307889275</t>
+          <t>-40.94684809057526,173.04972313829697</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -49316,7 +49316,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>-40.94684809974343,173.04960519117643</t>
+          <t>-40.946848099745715,173.04960516147432</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -49643,7 +49643,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>-40.94684808324731,173.0498163138489</t>
+          <t>-40.94684808324966,173.04981628414677</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -49676,7 +49676,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>-40.94684809651107,173.04964695235788</t>
+          <t>-40.94684809650877,173.04964698205998</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -49713,7 +49713,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>-40.946848089614804,173.04973540527274</t>
+          <t>-40.946848089617134,173.0497353755706</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -49750,7 +49750,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>-40.94684810587642,173.04952541128065</t>
+          <t>-40.946848105874125,173.0495254409828</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -49787,7 +49787,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>-40.94684809540873,173.04966114997148</t>
+          <t>-40.94684809541104,173.04966112026938</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -49935,7 +49935,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>-40.94684809153674,173.0497108416191</t>
+          <t>-40.94684809153208,173.04971090102333</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
@@ -49960,7 +49960,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>-40.94684810437682,173.04954498497813</t>
+          <t>-40.946848104381374,173.04954492557385</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -50051,7 +50051,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>-40.946848106226376,173.04952083715412</t>
+          <t>-40.94684810622864,173.04952080745198</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -50088,7 +50088,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>-40.9468480946952,173.04967032792672</t>
+          <t>-40.946848094690566,173.04967038733096</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -50121,7 +50121,7 @@
       <c r="B549" t="inlineStr"/>
       <c r="C549" t="inlineStr">
         <is>
-          <t>-40.94684809942684,173.04960929006907</t>
+          <t>-40.94684809942454,173.04960931977118</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -50158,7 +50158,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>-40.946848095941675,173.04965428878165</t>
+          <t>-40.94684809594628,173.0496542293774</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -50265,7 +50265,7 @@
       <c r="B553" t="inlineStr"/>
       <c r="C553" t="inlineStr">
         <is>
-          <t>-40.94684810157586,173.04958142948</t>
+          <t>-40.94684810157815,173.04958139977788</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -50298,7 +50298,7 @@
       <c r="B554" t="inlineStr"/>
       <c r="C554" t="inlineStr">
         <is>
-          <t>-40.94684810274147,173.04956628139854</t>
+          <t>-40.94684810273918,173.04956631110065</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -50335,7 +50335,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>-40.946848104146696,173.04954798489229</t>
+          <t>-40.94684810414442,173.04954801459442</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -50372,7 +50372,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>-40.946848088002604,173.0497559591401</t>
+          <t>-40.94684808800493,173.049755929438</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -50409,7 +50409,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>-40.94684809243431,173.04969934689845</t>
+          <t>-40.94684809243199,173.04969937660059</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
@@ -50434,7 +50434,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>-40.946848093615415,173.049684198817</t>
+          <t>-40.94684809361773,173.04968416911487</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -50537,7 +50537,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>-40.946848094595836,173.0496716051179</t>
+          <t>-40.94684809459815,173.0496715754158</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -50574,7 +50574,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>-40.94684809812455,173.0496261311714</t>
+          <t>-40.94684809811995,173.04962619057565</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -50632,7 +50632,7 @@
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr">
         <is>
-          <t>-40.946848087755306,173.04975910756488</t>
+          <t>-40.94684808775299,173.049759137267</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -50698,7 +50698,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>-40.94684809871055,173.04961855713069</t>
+          <t>-40.94684809870824,173.0496185868328</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -50735,7 +50735,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>-40.94684810540801,173.04953152991752</t>
+          <t>-40.94684810541028,173.04953150021538</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -50846,7 +50846,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>-40.94684809329139,173.04968835711387</t>
+          <t>-40.9468480932937,173.04968832741176</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -50912,7 +50912,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>-40.946848091209425,173.04971502961808</t>
+          <t>-40.946848091207094,173.0497150593202</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -50999,7 +50999,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>-40.946848092638255,173.04969673311183</t>
+          <t>-40.946848092635925,173.04969676281397</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -51028,7 +51028,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>-40.94684809272399,173.04969563413337</t>
+          <t>-40.94684809271934,173.04969569353764</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -51061,7 +51061,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>-40.946848090795996,173.04972031659554</t>
+          <t>-40.946848090798326,173.0497202868934</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -51218,7 +51218,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>-40.94684808452349,173.04980015589535</t>
+          <t>-40.94684808452582,173.04980012619325</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -51255,7 +51255,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>-40.94684808976839,173.0497334449328</t>
+          <t>-40.94684808976606,173.0497334746349</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -51292,7 +51292,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>-40.94684808978932,173.0497331776137</t>
+          <t>-40.946848089784666,173.04973323701796</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -51321,7 +51321,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>-40.94684809929374,173.04961101279204</t>
+          <t>-40.946848099296034,173.04961098308993</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -51358,7 +51358,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>-40.94684809474833,173.04966964477796</t>
+          <t>-40.94684809474601,173.04966967448007</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -51424,7 +51424,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>-40.94684809524253,173.04966328852416</t>
+          <t>-40.94684809524484,173.04966325882205</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -51461,7 +51461,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>-40.94684809769221,173.04963171517005</t>
+          <t>-40.9468480976876,173.04963177457432</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -51498,7 +51498,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>-40.94684809065194,173.049722158127</t>
+          <t>-40.946848090649624,173.04972218782913</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -51527,7 +51527,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>-40.9468480942977,173.04967543669147</t>
+          <t>-40.946848094302325,173.0496753772872</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -51564,7 +51564,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>-40.94684808965205,173.0497349300388</t>
+          <t>-40.946848089654374,173.0497349003367</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -51639,7 +51639,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>-40.94684810870948,173.0494883133321</t>
+          <t>-40.94684810871399,173.04948825392785</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -51713,7 +51713,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>-40.94684810024326,173.04959871611416</t>
+          <t>-40.946848100240956,173.04959874581627</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -51746,7 +51746,7 @@
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="inlineStr">
         <is>
-          <t>-40.94684809788542,173.04962922019195</t>
+          <t>-40.94684809788081,173.0496292795962</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -51783,7 +51783,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>-40.94684809425145,173.04967603073388</t>
+          <t>-40.94684809425608,173.04967597132963</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -51820,7 +51820,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>-40.94684808551657,173.0497875621963</t>
+          <t>-40.94684808551891,173.04978753249415</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -51849,7 +51849,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>-40.946848090210295,173.04972780152988</t>
+          <t>-40.94684809021263,173.04972777182778</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -51886,7 +51886,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>-40.94684809777732,173.0496306161916</t>
+          <t>-40.94684809777961,173.04963058648949</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -51923,7 +51923,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>-40.9468480904242,173.0497250689348</t>
+          <t>-40.94684809042651,173.04972503923267</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -51960,7 +51960,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>-40.94684809459353,173.04967163482004</t>
+          <t>-40.94684809459815,173.0496715754158</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -51997,7 +51997,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>-40.94684810325508,173.04955959842144</t>
+          <t>-40.94684810325963,173.0495595390172</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -52034,7 +52034,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>-40.94684810065796,173.04959334003036</t>
+          <t>-40.946848100662564,173.0495932806261</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -52071,7 +52071,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>-40.94684810262728,173.04956776650457</t>
+          <t>-40.94684810262956,173.04956773680246</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -52108,7 +52108,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>-40.9468480905125,173.0497239402542</t>
+          <t>-40.94684809051019,173.04972396995635</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -52248,7 +52248,7 @@
       <c r="B612" t="inlineStr"/>
       <c r="C612" t="inlineStr">
         <is>
-          <t>-40.94684809616074,173.0496514670802</t>
+          <t>-40.946848096158426,173.04965149678233</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -52285,7 +52285,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>-40.94684809185461,173.04970677242858</t>
+          <t>-40.94684809185692,173.04970674272647</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -52322,7 +52322,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>-40.94684810805726,173.0494968675428</t>
+          <t>-40.94684810806179,173.04949680813857</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -52359,7 +52359,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>-40.946848091174594,173.04971547514987</t>
+          <t>-40.94684809117923,173.04971541574562</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -52396,7 +52396,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>-40.94684810841061,173.049492234012</t>
+          <t>-40.946848108415146,173.04949217460776</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -52454,7 +52454,7 @@
       <c r="B618" t="inlineStr"/>
       <c r="C618" t="inlineStr">
         <is>
-          <t>-40.94684809462125,173.04967127839458</t>
+          <t>-40.94684809462588,173.04967121899034</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -52491,7 +52491,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>-40.94684810456816,173.04954249</t>
+          <t>-40.9468481045727,173.04954243059575</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -52557,7 +52557,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>-40.94684810233945,173.04957150897175</t>
+          <t>-40.94684810233716,173.04957153867386</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -52631,7 +52631,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>-40.94684809713987,173.049638843679</t>
+          <t>-40.94684809713528,173.04963890308323</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -52668,7 +52668,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>-40.94684809967921,173.0496060228358</t>
+          <t>-40.946848099681496,173.0496059931337</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -52705,7 +52705,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>-40.946848107959845,173.049498144734</t>
+          <t>-40.94684810796211,173.0494981150319</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -52742,7 +52742,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>-40.94684810822944,173.04949461018163</t>
+          <t>-40.946848108233965,173.0494945507774</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -52816,7 +52816,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>-40.946848110529096,173.04946440312506</t>
+          <t>-40.94684811053134,173.04946437342292</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -52853,7 +52853,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>-40.946848111710885,173.04944883921385</t>
+          <t>-40.94684811171314,173.04944880951172</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -52890,7 +52890,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>-40.94684810610369,173.0495224410686</t>
+          <t>-40.946848106101406,173.04952247077074</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -52964,7 +52964,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>-40.946848099032046,173.0496143988338</t>
+          <t>-40.94684809902976,173.04961442853593</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -53001,7 +53001,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>-40.946848100559464,173.04959461722154</t>
+          <t>-40.946848100561745,173.0495945875194</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -53055,7 +53055,7 @@
       <c r="B635" t="inlineStr"/>
       <c r="C635" t="inlineStr">
         <is>
-          <t>-40.946848105494425,173.04953040123692</t>
+          <t>-40.946848105492165,173.04953043093906</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -53092,7 +53092,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>-40.946848108381175,173.04949262013957</t>
+          <t>-40.946848108378916,173.0494926498417</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -53154,7 +53154,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>-40.946848095360245,173.04966177371602</t>
+          <t>-40.94684809535564,173.04966183312027</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -53183,7 +53183,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>-40.94684809590708,173.04965473431346</t>
+          <t>-40.94684809590938,173.04965470461133</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -53220,7 +53220,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>-40.94684811149227,173.04945172031955</t>
+          <t>-40.94684811148777,173.0494517797238</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -53294,7 +53294,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>-40.94684810080684,173.04959140939252</t>
+          <t>-40.946848100809135,173.04959137969038</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -53331,7 +53331,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>-40.946848098096964,173.04962648759687</t>
+          <t>-40.94684809809237,173.0496265470011</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -53368,7 +53368,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>-40.94684809780032,173.0496303191704</t>
+          <t>-40.94684809779801,173.0496303488725</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -53401,7 +53401,7 @@
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr">
         <is>
-          <t>-40.946848075908115,173.0499086874435</t>
+          <t>-40.946848075905734,173.04990871714557</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
@@ -53430,7 +53430,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>-40.94684809939014,173.04960976530302</t>
+          <t>-40.94684809938783,173.04960979500513</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
@@ -53459,7 +53459,7 @@
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr">
         <is>
-          <t>-40.94684809217003,173.0497027329402</t>
+          <t>-40.946848092172345,173.0497027032381</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -53513,7 +53513,7 @@
       <c r="B649" t="inlineStr"/>
       <c r="C649" t="inlineStr">
         <is>
-          <t>-40.94684810374094,173.04955327186974</t>
+          <t>-40.94684810374323,173.04955324216763</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -53550,7 +53550,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>-40.946848098315336,173.04962366589538</t>
+          <t>-40.94684809831303,173.04962369559752</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -53575,7 +53575,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>-40.946848097386194,173.0496356655521</t>
+          <t>-40.94684809738387,173.0496356952542</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -53612,7 +53612,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>-40.9468481089109,173.04948566984336</t>
+          <t>-40.94684810891315,173.04948564014123</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -53649,7 +53649,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>-40.946848107975704,173.04949793681914</t>
+          <t>-40.94684810798022,173.04949787741492</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -53686,7 +53686,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>-40.94684810148435,173.04958261756485</t>
+          <t>-40.94684810148663,173.04958258786272</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -53723,7 +53723,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>-40.94684809790381,173.04962898257497</t>
+          <t>-40.94684809790841,173.04962892317073</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -53756,7 +53756,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>-40.94684809377275,173.0496821790728</t>
+          <t>-40.94684809377505,173.04968214937068</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -53917,7 +53917,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>-40.94684809272166,173.0496956638355</t>
+          <t>-40.94684809271934,173.04969569353764</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -53954,7 +53954,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>-40.946848096826706,173.04964288316737</t>
+          <t>-40.946848096822094,173.0496429425716</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -54020,7 +54020,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>-40.946848091933475,173.0497057625565</t>
+          <t>-40.94684809193116,173.0497057922586</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -54090,7 +54090,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>-40.94684809856811,173.04962039866214</t>
+          <t>-40.946848098570406,173.04962036896</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -54197,7 +54197,7 @@
       <c r="B669" t="inlineStr"/>
       <c r="C669" t="inlineStr">
         <is>
-          <t>-40.946848091065455,173.04971687114954</t>
+          <t>-40.94684809106777,173.04971684144743</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -54234,7 +54234,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>-40.94684809028237,173.04972688076415</t>
+          <t>-40.94684809027773,173.0497269401684</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
@@ -54263,7 +54263,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>-40.946848084645346,173.04979861138509</t>
+          <t>-40.946848084647684,173.04979858168298</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -54420,7 +54420,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>-40.946848092476024,173.0496988122603</t>
+          <t>-40.94684809247835,173.04969878255818</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -54490,7 +54490,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>-40.94684807122803,173.04996711151435</t>
+          <t>-40.94684807123282,173.0499670521101</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -54523,7 +54523,7 @@
       <c r="B679" t="inlineStr"/>
       <c r="C679" t="inlineStr">
         <is>
-          <t>-40.94684806420905,173.05005404962074</t>
+          <t>-40.94684806421145,173.0500540199186</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
@@ -54548,7 +54548,7 @@
       <c r="B680" t="inlineStr"/>
       <c r="C680" t="inlineStr">
         <is>
-          <t>-40.946848077504946,173.0498886682143</t>
+          <t>-40.94684807750731,173.0498886385122</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -54585,7 +54585,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>-40.94684809794981,173.04962838853257</t>
+          <t>-40.9468480979452,173.0496284479368</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -54762,7 +54762,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>-40.946848077758126,173.04988549008743</t>
+          <t>-40.94684807776286,173.0498854306832</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
@@ -54795,7 +54795,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>-40.946848083864566,173.0498085021912</t>
+          <t>-40.946848083859884,173.04980856159546</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -54832,7 +54832,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>-40.94684809010334,173.04972916782742</t>
+          <t>-40.946848090101014,173.04972919752953</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -54898,7 +54898,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>-40.94684808878121,173.04974603863187</t>
+          <t>-40.94684808877888,173.04974606833397</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -54935,7 +54935,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>-40.94684809489616,173.04966774384226</t>
+          <t>-40.94684809489385,173.04966777354437</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -55009,7 +55009,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>-40.94684809579405,173.04965618971738</t>
+          <t>-40.94684809578945,173.04965624912163</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -55046,7 +55046,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>-40.946848089358774,173.04973867250598</t>
+          <t>-40.94684808935646,173.04973870220812</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -55083,7 +55083,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>-40.94684809299963,173.04969209958105</t>
+          <t>-40.94684809299733,173.04969212928316</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -55194,7 +55194,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>-40.94684809752885,173.04963382402062</t>
+          <t>-40.946848097531166,173.04963379431848</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -55268,7 +55268,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>-40.94684809431387,173.04967522877664</t>
+          <t>-40.94684809431156,173.04967525847874</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>-40.94684809280971,173.04969453515494</t>
+          <t>-40.94684809281202,173.0496945054528</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -55453,7 +55453,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>-40.94684809744371,173.04963492299908</t>
+          <t>-40.946848097448324,173.04963486359483</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -55486,7 +55486,7 @@
       <c r="B706" t="inlineStr"/>
       <c r="C706" t="inlineStr">
         <is>
-          <t>-40.94684809354136,173.04968514928487</t>
+          <t>-40.94684809354368,173.04968511958276</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -55523,7 +55523,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>-40.946848090094036,173.0497292866359</t>
+          <t>-40.94684809009172,173.04972931633804</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -55560,7 +55560,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>-40.946848085535294,173.0497873245793</t>
+          <t>-40.94684808553763,173.0497872948772</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -55593,7 +55593,7 @@
       <c r="B709" t="inlineStr"/>
       <c r="C709" t="inlineStr">
         <is>
-          <t>-40.94684810320715,173.04956022216595</t>
+          <t>-40.94684810320487,173.04956025186806</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -55667,7 +55667,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>-40.946848098264766,173.04962431934206</t>
+          <t>-40.946848098267075,173.04962428963992</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -55741,7 +55741,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>-40.94684809160403,173.04970998025757</t>
+          <t>-40.94684809160635,173.04970995055547</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -55939,7 +55939,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>-40.946848093962416,173.04967974349893</t>
+          <t>-40.94684809396011,173.04967977320104</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -55976,7 +55976,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>-40.94684809917899,173.0496124978981</t>
+          <t>-40.94684809917668,173.0496125276002</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -56075,7 +56075,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>-40.94684808491713,173.04979516593914</t>
+          <t>-40.94684808491947,173.049795136237</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -56112,7 +56112,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>-40.946848105599045,173.04952903493938</t>
+          <t>-40.94684810560132,173.04952900523725</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -56166,7 +56166,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>-40.94684808609211,173.04978025547467</t>
+          <t>-40.94684808608978,173.04978028517678</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -56203,7 +56203,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>-40.946848107057356,173.04950996617796</t>
+          <t>-40.9468481070551,173.0495099958801</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -56236,7 +56236,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>-40.946848087505614,173.04976228569177</t>
+          <t>-40.94684808751028,173.04976222628753</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -56273,7 +56273,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>-40.94684808723482,173.04976573113777</t>
+          <t>-40.94684808723015,173.04976579054198</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>-40.94684807896605,173.04987031230388</t>
+          <t>-40.94684807896369,173.049870342006</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -56409,7 +56409,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>-40.946848093078366,173.04969108970897</t>
+          <t>-40.946848093080696,173.04969106000684</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -56446,7 +56446,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>-40.94684809183606,173.04970701004555</t>
+          <t>-40.94684809183837,173.04970698034342</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -56483,7 +56483,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>-40.946848083536054,173.04981266048807</t>
+          <t>-40.94684808354075,173.04981260108383</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -56599,7 +56599,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>-40.94684809934881,173.04961029994118</t>
+          <t>-40.94684809935113,173.04961027023904</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -56636,7 +56636,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>-40.94684810040367,173.04959663696573</t>
+          <t>-40.94684810040596,173.04959660726362</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -56735,7 +56735,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>-40.94684809158546,173.04971021787455</t>
+          <t>-40.94684809158778,173.0497101881724</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -56809,7 +56809,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>-40.9468480914555,173.0497118811933</t>
+          <t>-40.946848091457824,173.04971185149117</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -56883,7 +56883,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>-40.946848096824404,173.0496429128695</t>
+          <t>-40.946848096822094,173.0496429425716</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -56920,7 +56920,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>-40.946848101214336,173.04958612241506</t>
+          <t>-40.946848101212055,173.04958615211717</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -56994,7 +56994,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>-40.9468480903126,173.0497264946366</t>
+          <t>-40.94684809031493,173.04972646493445</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -57031,7 +57031,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>-40.946848104875535,173.0495384802137</t>
+          <t>-40.94684810487326,173.0495385099158</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -57068,7 +57068,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>-40.94684808963808,173.04973510825153</t>
+          <t>-40.94684808963575,173.04973513795366</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
@@ -57142,7 +57142,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>-40.94684809896776,173.04961523049317</t>
+          <t>-40.94684809896546,173.0496152601953</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -57216,7 +57216,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>-40.94684809407342,173.04967831779715</t>
+          <t>-40.946848094071115,173.04967834749925</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -57253,7 +57253,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>-40.94684808787196,173.04975762245886</t>
+          <t>-40.94684808787431,173.04975759275672</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -57327,7 +57327,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>-40.94684809002426,173.04973017769953</t>
+          <t>-40.94684809002659,173.04973014799742</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -57364,7 +57364,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>-40.94684808468283,173.04979813615117</t>
+          <t>-40.94684808468519,173.04979810644906</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -57401,7 +57401,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>-40.94684809710535,173.04963928921077</t>
+          <t>-40.94684809710765,173.04963925950867</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -57475,7 +57475,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>-40.94684808833606,173.0497517117369</t>
+          <t>-40.9468480883314,173.0497517711411</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -57512,7 +57512,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>-40.94684808598453,173.0497816217722</t>
+          <t>-40.94684808598687,173.04978159207008</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
@@ -57549,7 +57549,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>-40.94684808973581,173.04973386076244</t>
+          <t>-40.94684808973813,173.04973383106034</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -57652,7 +57652,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>-40.94684808683544,173.04977081020033</t>
+          <t>-40.94684808683777,173.04977078049822</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -57710,7 +57710,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>-40.94684810011031,173.04960043883716</t>
+          <t>-40.946848100112604,173.04960040913502</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -57747,7 +57747,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>-40.946848086970924,173.04976908747736</t>
+          <t>-40.94684808696858,173.04976911717947</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -57784,7 +57784,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>-40.946848086452185,173.04977568134808</t>
+          <t>-40.94684808645453,173.04977565164597</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -57879,7 +57879,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>-40.946848101960036,173.04957643952375</t>
+          <t>-40.94684810196232,173.04957640982164</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -57916,7 +57916,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>-40.94684809391154,173.04968039694558</t>
+          <t>-40.94684809391384,173.04968036724347</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -57953,7 +57953,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>-40.946848092179295,173.04970261413172</t>
+          <t>-40.94684809218162,173.04970258442958</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -58052,7 +58052,7 @@
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr">
         <is>
-          <t>-40.946848103444424,173.0495571331454</t>
+          <t>-40.946848103442164,173.04955716284752</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -58081,7 +58081,7 @@
       <c r="B781" t="inlineStr"/>
       <c r="C781" t="inlineStr">
         <is>
-          <t>-40.94684811348861,173.0494253745386</t>
+          <t>-40.94684811348636,173.0494254042407</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -58114,7 +58114,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>-40.94684808657139,173.04977416653995</t>
+          <t>-40.946848086576054,173.0497741071357</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -58147,7 +58147,7 @@
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr">
         <is>
-          <t>-40.946848103499185,173.04955642029452</t>
+          <t>-40.946848103496905,173.04955644999663</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -58291,7 +58291,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>-40.94684809037304,173.04972572238145</t>
+          <t>-40.946848090370715,173.0497257520836</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -58328,7 +58328,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>-40.94684809475758,173.04966952596948</t>
+          <t>-40.94684809475527,173.04966955567158</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
@@ -58365,7 +58365,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>-40.94684809277959,173.0496949212825</t>
+          <t>-40.94684809277494,173.04969498068675</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -58402,7 +58402,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>-40.94684809219785,173.04970237651474</t>
+          <t>-40.94684809220016,173.04970234681264</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -58439,7 +58439,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>-40.94684808641945,173.04977609717778</t>
+          <t>-40.94684808641712,173.04977612687992</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -58472,7 +58472,7 @@
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="inlineStr">
         <is>
-          <t>-40.946848099569095,173.04960744853759</t>
+          <t>-40.9468480995714,173.04960741883548</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -58575,7 +58575,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>-40.94684810362008,173.04955484608215</t>
+          <t>-40.94684810361551,173.0495549054864</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -58612,7 +58612,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>-40.946848098310745,173.04962372529965</t>
+          <t>-40.94684809831303,173.04962369559752</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -58649,7 +58649,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>-40.94684809210046,173.0497036240038</t>
+          <t>-40.94684809209814,173.04970365370593</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -58686,7 +58686,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>-40.94684809571793,173.04965716988733</t>
+          <t>-40.94684809571563,173.04965719958946</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -58723,7 +58723,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>-40.94684809169452,173.04970882187487</t>
+          <t>-40.946848091699174,173.04970876247066</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -58760,7 +58760,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>-40.946848083125204,173.04981785835915</t>
+          <t>-40.94684808312755,173.04981782865704</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -58797,7 +58797,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>-40.94684808872994,173.04974669207851</t>
+          <t>-40.94684808873226,173.0497466623764</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -58834,7 +58834,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>-40.94684809133479,173.04971342570357</t>
+          <t>-40.94684809133712,173.04971339600147</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -58871,7 +58871,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>-40.946848097248086,173.04963744767932</t>
+          <t>-40.94684809724577,173.04963747738145</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -58908,7 +58908,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>-40.94684808591669,173.0497824831337</t>
+          <t>-40.946848085912016,173.0497825425379</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -58945,7 +58945,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>-40.94684808140415,173.04983960031132</t>
+          <t>-40.94684808140651,173.0498395706092</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
@@ -58982,7 +58982,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>-40.94684808892565,173.0497441971004</t>
+          <t>-40.94684808892796,173.04974416739827</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -59093,7 +59093,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>-40.94684809384677,173.04968122860495</t>
+          <t>-40.946848093849084,173.04968119890285</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -59130,7 +59130,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>-40.94684808416479,173.04980470031978</t>
+          <t>-40.9468480841601,173.04980475972405</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -59167,7 +59167,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>-40.94684809183141,173.0497070694498</t>
+          <t>-40.94684809182909,173.0497070991519</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
@@ -59204,7 +59204,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>-40.946848089484476,173.0497370685915</t>
+          <t>-40.94684808948681,173.04973703888936</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -59241,7 +59241,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>-40.94684809381438,173.04968164443463</t>
+          <t>-40.94684809381208,173.04968167413676</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -59278,7 +59278,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>-40.94684809626447,173.0496501304848</t>
+          <t>-40.94684809626908,173.04965007108055</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
@@ -59352,7 +59352,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>-40.94684809589325,173.0496549125262</t>
+          <t>-40.94684809589095,173.0496549422283</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -59389,7 +59389,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>-40.94684809091447,173.04971880178738</t>
+          <t>-40.94684809091913,173.04971874238313</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -59533,7 +59533,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>-40.946848087458946,173.04976287973417</t>
+          <t>-40.94684808745426,173.04976293913842</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -59570,7 +59570,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>-40.946848087906965,173.04975717692705</t>
+          <t>-40.9468480879023,173.0497572363313</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -59628,7 +59628,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>-40.94684810360867,173.0495549945927</t>
+          <t>-40.9468481036064,173.04955502429485</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -59698,7 +59698,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>-40.94684808635867,173.04977686943292</t>
+          <t>-40.946848086361015,173.04977683973078</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -59735,7 +59735,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>-40.94684808237099,173.04982739273984</t>
+          <t>-40.94684808236628,173.04982745214406</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -59772,7 +59772,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>-40.946848100710646,173.04959265688157</t>
+          <t>-40.94684810070835,173.0495926865837</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -59809,7 +59809,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>-40.94684808598453,173.0497816217722</t>
+          <t>-40.94684808598687,173.04978159207008</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
@@ -59846,7 +59846,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>-40.9468480845891,173.049799324236</t>
+          <t>-40.94684808459144,173.04979929453387</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -59920,7 +59920,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>-40.94684809426302,173.04967588222326</t>
+          <t>-40.946848094265334,173.04967585252115</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
@@ -59953,7 +59953,7 @@
       <c r="B833" t="inlineStr"/>
       <c r="C833" t="inlineStr">
         <is>
-          <t>-40.946848094380904,173.04967436741512</t>
+          <t>-40.946848094376286,173.04967442681937</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -59990,7 +59990,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>-40.94684809714679,173.0496387545726</t>
+          <t>-40.94684809714448,173.04963878427475</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -60027,7 +60027,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>-40.94684809118618,173.0497153266393</t>
+          <t>-40.94684809118853,173.04971529693717</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
@@ -60064,7 +60064,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>-40.94684808602896,173.04978105743191</t>
+          <t>-40.94684808602429,173.04978111683616</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
@@ -60138,7 +60138,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>-40.94684810250394,173.04956937041908</t>
+          <t>-40.94684810250165,173.04956940012121</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>-40.94684809027308,173.0497269995726</t>
+          <t>-40.94684809027773,173.0497269401684</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -60249,7 +60249,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>-40.94684809386527,173.049680990988</t>
+          <t>-40.94684809386759,173.04968096128587</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
@@ -60286,7 +60286,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>-40.946848094480295,173.04967309022393</t>
+          <t>-40.946848094477986,173.04967311992604</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -60360,7 +60360,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>-40.94684808763398,173.04976065207515</t>
+          <t>-40.94684808763165,173.04976068177726</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
@@ -60434,7 +60434,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>-40.94684809870595,173.04961861653493</t>
+          <t>-40.94684809870824,173.0496185868328</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -60471,7 +60471,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>-40.9468480990619,173.04961401270623</t>
+          <t>-40.946848099057306,173.04961407211047</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
@@ -60508,7 +60508,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>-40.94684809946586,173.04960878513302</t>
+          <t>-40.94684809946125,173.04960884453726</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
@@ -60545,7 +60545,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>-40.94684809781412,173.04963014095767</t>
+          <t>-40.94684809781642,173.04963011125557</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -60582,7 +60582,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>-40.94684808832907,173.04975180084324</t>
+          <t>-40.9468480883314,173.0497517711411</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
@@ -60619,7 +60619,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>-40.946848097213554,173.04963789321113</t>
+          <t>-40.94684809721815,173.0496378338069</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
@@ -60656,7 +60656,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>-40.9468480878883,173.04975741454402</t>
+          <t>-40.946848087892974,173.04975735513977</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -60693,7 +60693,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>-40.946848091740925,173.0497082278325</t>
+          <t>-40.94684809173629,173.0497082872367</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
@@ -60730,7 +60730,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>-40.94684809045208,173.04972471250937</t>
+          <t>-40.9468480904544,173.04972468280724</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
@@ -60804,7 +60804,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>-40.94684809195667,173.04970546553528</t>
+          <t>-40.946848091959,173.04970543583318</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
@@ -60841,7 +60841,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>-40.9468480873002,173.0497648994784</t>
+          <t>-40.94684808730486,173.04976484007415</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -60878,7 +60878,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>-40.946848094648985,173.04967092196912</t>
+          <t>-40.9468480946536,173.04967086256488</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -60952,7 +60952,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>-40.94684808460316,173.04979914602328</t>
+          <t>-40.94684808460083,173.04979917572538</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -60989,7 +60989,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>-40.94684809574562,173.04965681346192</t>
+          <t>-40.94684809574331,173.049656843164</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -61026,7 +61026,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>-40.94684810314782,173.04956099442109</t>
+          <t>-40.9468481031501,173.04956096471898</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
@@ -61063,7 +61063,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>-40.94684810042887,173.0495963102424</t>
+          <t>-40.946848100433456,173.04959625083816</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
@@ -61100,7 +61100,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>-40.94684808820783,173.0497533453535</t>
+          <t>-40.94684808821015,173.0497533156514</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -61285,7 +61285,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>-40.94684809345574,173.04968624826333</t>
+          <t>-40.9468480934511,173.04968630766754</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -61322,7 +61322,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>-40.946848083852835,173.04980865070183</t>
+          <t>-40.94684808385048,173.04980868040394</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>-40.946848094642064,173.0496710110755</t>
+          <t>-40.946848094644366,173.04967098137337</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
@@ -61421,7 +61421,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>-40.94684808707603,173.04976775088193</t>
+          <t>-40.94684808708069,173.04976769147768</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -61458,7 +61458,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>-40.94684808712039,173.04976718654163</t>
+          <t>-40.94684808711806,173.04976721624377</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -61495,7 +61495,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>-40.94684809786012,173.04962954691527</t>
+          <t>-40.94684809786242,173.04962951721313</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -61569,7 +61569,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>-40.94684808558677,173.04978667113267</t>
+          <t>-40.94684808558445,173.04978670083477</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -61606,7 +61606,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>-40.94684807932497,173.04986579758156</t>
+          <t>-40.946848079322606,173.0498658272837</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
@@ -61643,7 +61643,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>-40.94684808735623,173.04976418662747</t>
+          <t>-40.946848087360884,173.04976412722323</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
@@ -61680,7 +61680,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>-40.94684809065428,173.0497221284249</t>
+          <t>-40.946848090658925,173.04972206902062</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
@@ -61717,7 +61717,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>-40.94684809897695,173.0496151116847</t>
+          <t>-40.94684809897465,173.0496151413868</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
@@ -61828,7 +61828,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>-40.94684809190564,173.04970611898193</t>
+          <t>-40.94684809190332,173.04970614868404</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">

--- a/data/nzd0579/nzd0579.xlsx
+++ b/data/nzd0579/nzd0579.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G885"/>
+  <dimension ref="A1:G890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22626,6 +22626,137 @@
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:03+00:00</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="n">
+        <v>221.07</v>
+      </c>
+      <c r="D886" t="n">
+        <v>235</v>
+      </c>
+      <c r="E886" t="n">
+        <v>212.24</v>
+      </c>
+      <c r="F886" t="n">
+        <v>217.29</v>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="C887" t="n">
+        <v>219.82</v>
+      </c>
+      <c r="D887" t="n">
+        <v>217.23</v>
+      </c>
+      <c r="E887" t="n">
+        <v>214.98</v>
+      </c>
+      <c r="F887" t="n">
+        <v>211.71</v>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:07:29+00:00</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>207.67</v>
+      </c>
+      <c r="C888" t="n">
+        <v>220.46</v>
+      </c>
+      <c r="D888" t="n">
+        <v>216.62</v>
+      </c>
+      <c r="E888" t="n">
+        <v>214.03</v>
+      </c>
+      <c r="F888" t="n">
+        <v>208.69</v>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="n">
+        <v>234.55</v>
+      </c>
+      <c r="D889" t="n">
+        <v>226.03</v>
+      </c>
+      <c r="E889" t="n">
+        <v>218.72</v>
+      </c>
+      <c r="F889" t="n">
+        <v>222.71</v>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:07:36+00:00</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>207.51</v>
+      </c>
+      <c r="C890" t="n">
+        <v>219.21</v>
+      </c>
+      <c r="D890" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="E890" t="n">
+        <v>213.21</v>
+      </c>
+      <c r="F890" t="n">
+        <v>211.59</v>
+      </c>
+      <c r="G890" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22642,7 +22773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B938"/>
+  <dimension ref="A1:B943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32030,6 +32161,56 @@
       </c>
       <c r="B938" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -32191,34 +32372,34 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0381</v>
+        <v>0.0384</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0416</v>
+        <v>0.0419</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2815281409888569</v>
+        <v>-0.3061582846009389</v>
       </c>
       <c r="J2" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="K2" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00893461898997705</v>
+        <v>0.01055825241121011</v>
       </c>
       <c r="M2" t="n">
-        <v>18.05694585592309</v>
+        <v>18.10691989142598</v>
       </c>
       <c r="N2" t="n">
-        <v>517.6476418502768</v>
+        <v>519.5036459893729</v>
       </c>
       <c r="O2" t="n">
-        <v>22.75187117250528</v>
+        <v>22.79262262201024</v>
       </c>
       <c r="P2" t="n">
-        <v>247.8012999866311</v>
+        <v>248.0441290927793</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32263,34 +32444,34 @@
         <v>0.16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.128</v>
+        <v>0.1297</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1896297175492314</v>
+        <v>0.1837876151913273</v>
       </c>
       <c r="J3" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="K3" t="n">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01953488289925032</v>
+        <v>0.01856305805827829</v>
       </c>
       <c r="M3" t="n">
-        <v>7.332522901278726</v>
+        <v>7.331053241830024</v>
       </c>
       <c r="N3" t="n">
-        <v>103.0038931411609</v>
+        <v>102.6405796315843</v>
       </c>
       <c r="O3" t="n">
-        <v>10.14908336457835</v>
+        <v>10.13116871992488</v>
       </c>
       <c r="P3" t="n">
-        <v>222.4597282437118</v>
+        <v>222.5191077827176</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32335,34 +32516,34 @@
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1731</v>
+        <v>0.1749</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.514005154539002</v>
+        <v>0.5107440134569929</v>
       </c>
       <c r="J4" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="K4" t="n">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1651389594296699</v>
+        <v>0.1645574802106073</v>
       </c>
       <c r="M4" t="n">
-        <v>6.124596455433611</v>
+        <v>6.131698440662076</v>
       </c>
       <c r="N4" t="n">
-        <v>77.51712363284449</v>
+        <v>77.41167104250698</v>
       </c>
       <c r="O4" t="n">
-        <v>8.80438093410573</v>
+        <v>8.7983902529103</v>
       </c>
       <c r="P4" t="n">
-        <v>211.2746771436604</v>
+        <v>211.3070465128569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32413,28 +32594,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6039894832433437</v>
+        <v>0.5984268753494413</v>
       </c>
       <c r="J5" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="K5" t="n">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2252689949274941</v>
+        <v>0.2240785931845223</v>
       </c>
       <c r="M5" t="n">
-        <v>6.270028623711782</v>
+        <v>6.252926087159978</v>
       </c>
       <c r="N5" t="n">
-        <v>71.02481968593844</v>
+        <v>70.70618469967387</v>
       </c>
       <c r="O5" t="n">
-        <v>8.427622421889724</v>
+        <v>8.408696968001276</v>
       </c>
       <c r="P5" t="n">
-        <v>203.190705010231</v>
+        <v>203.2469391759317</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32479,34 +32660,34 @@
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1945</v>
+        <v>0.1946</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6287313776378852</v>
+        <v>0.6264575876310046</v>
       </c>
       <c r="J6" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="K6" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2143410422837764</v>
+        <v>0.2151779659519684</v>
       </c>
       <c r="M6" t="n">
-        <v>6.339794678205515</v>
+        <v>6.330244125586938</v>
       </c>
       <c r="N6" t="n">
-        <v>77.20870197817408</v>
+        <v>76.86044121750216</v>
       </c>
       <c r="O6" t="n">
-        <v>8.786848239168245</v>
+        <v>8.767008681272202</v>
       </c>
       <c r="P6" t="n">
-        <v>199.5829039269869</v>
+        <v>199.6068991862127</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32544,7 +32725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G885"/>
+  <dimension ref="A1:G890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61877,6 +62058,183 @@
         </is>
       </c>
     </row>
+    <row r="886">
+      <c r="A886" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:03+00:00</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>-40.9468480988828,173.04961632947163</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>-40.946155520118346,173.0498161869354</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>-40.945432458756066,173.04967195328777</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>-40.94479150416,173.04999600459942</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>-40.947550844799416,173.04961249912444</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>-40.946848100030074,173.04960147841138</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>-40.946141860704834,173.049605836496</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>-40.94543640393404,173.04970408760994</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>-40.944771971540696,173.04993492122048</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:07:29+00:00</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>-40.94755701691067,173.04954251679408</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>-40.94684809944291,173.0496090821542</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>-40.94614139180425,173.04959861568895</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>-40.94543503608138,173.04969294614745</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>-40.94476140010954,173.04990186177236</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>-40.94684808638906,173.04977648330535</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>-40.94614862512191,173.0497100055267</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>-40.945441788943484,173.04974794979302</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>-40.944810476673126,173.05005533651806</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:07:36+00:00</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>-40.9475571834426,173.0495406285691</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>-40.94684810058924,173.04959423109395</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>-40.94614076147818,173.04958890903052</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>-40.94543385540769,173.0496833293065</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>-40.94477155148401,173.04993360759983</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
